--- a/No Macro Spreadsheets/MDEDG (Edgewater) 2020 No Macro.xlsx
+++ b/No Macro Spreadsheets/MDEDG (Edgewater) 2020 No Macro.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Personal Documents\Robotics\Robotics Data Processors\No Macro Spreadsheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2542A0-90BC-4B34-9550-7BF2A3C89937}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processed Data" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,20 @@
     <definedName name="NamedRange1">#REF!</definedName>
     <definedName name="NamedRange2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>Autonomous</t>
   </si>
@@ -36,19 +50,10 @@
     <t>District Ranking (2019 Szn End)</t>
   </si>
   <si>
-    <t>Bottom Power Cells</t>
-  </si>
-  <si>
     <t>Drivetrain</t>
   </si>
   <si>
     <t>Rotation/Position?</t>
-  </si>
-  <si>
-    <t>Outer Power Cells</t>
-  </si>
-  <si>
-    <t>Inner Power Cells</t>
   </si>
   <si>
     <t>Line Crossed 1/0</t>
@@ -222,22 +227,37 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Bottom Power Cells Per Sec</t>
+    <t>Auton Possible Locations</t>
   </si>
   <si>
-    <t>Outer Power Cells Per Sec</t>
+    <t>High Port Avg</t>
   </si>
   <si>
-    <t>Inner Power Cells Per Sec</t>
+    <t>Low Port Avg</t>
   </si>
   <si>
-    <t>Auton Possible Locations</t>
+    <t>Higher Power Cells Avg</t>
+  </si>
+  <si>
+    <t>Higher Power Cells Per Second</t>
+  </si>
+  <si>
+    <t>Lower Power Cells Avg</t>
+  </si>
+  <si>
+    <t>Lower Power Cells Per Second</t>
+  </si>
+  <si>
+    <t>Higher Power Cells</t>
+  </si>
+  <si>
+    <t>Lower Power Cells</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -289,7 +309,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,8 +556,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFBBD196"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -685,21 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -729,12 +746,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -745,16 +775,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -762,7 +785,22 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right/>
       <top style="thin">
@@ -775,11 +813,9 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
@@ -787,27 +823,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -816,7 +841,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -957,7 +982,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -965,19 +989,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="40" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="40" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="40" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="40" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -985,11 +996,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="41" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="1" fillId="40" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="1" fillId="40" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="40" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="40" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -997,20 +1006,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="41" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="40" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1058,11 +1090,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1070,6 +1105,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -1296,14 +1337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1317,110 +1358,99 @@
     <col min="7" max="7" width="23" style="7" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="7" customWidth="1"/>
     <col min="9" max="9" width="29.7109375" style="53" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="93" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="93" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="93" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="83"/>
-    <col min="14" max="14" width="19.7109375" style="101" customWidth="1"/>
-    <col min="15" max="15" width="28" style="97" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" style="97" customWidth="1"/>
-    <col min="17" max="17" width="26" style="97" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" style="97" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" style="97" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" style="87" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="87" customWidth="1"/>
-    <col min="22" max="23" width="16.85546875" style="87" customWidth="1"/>
-    <col min="24" max="24" width="16.85546875" style="97" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="87" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="7"/>
+    <col min="10" max="10" width="19.140625" style="77" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="77" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="69"/>
+    <col min="13" max="13" width="19.7109375" style="83" customWidth="1"/>
+    <col min="14" max="14" width="28" style="80" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="80" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="80" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="72" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="72" customWidth="1"/>
+    <col min="19" max="20" width="16.85546875" style="72" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" style="80" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="72" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:24" s="94" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="K1" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="94" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="84" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="84" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="102" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" s="94" t="s">
+      <c r="Q1" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="X1" s="93"/>
+    </row>
+    <row r="2" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="50">
         <v>116</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="11">
         <v>67</v>
@@ -1431,32 +1461,29 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="55"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="8">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="51">
         <v>339</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="12">
         <v>47</v>
@@ -1467,32 +1494,29 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="55"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="8">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="51">
         <v>384</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="13">
         <v>12</v>
@@ -1503,32 +1527,29 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="55"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="81"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="8">
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="51">
         <v>836</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="14">
         <v>7</v>
@@ -1539,32 +1560,29 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="55"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="67"/>
       <c r="M5" s="81"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="8">
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="51">
         <v>1389</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="15">
         <v>91</v>
@@ -1575,32 +1593,29 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="55"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="67"/>
       <c r="M6" s="81"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="8">
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="51">
         <v>1418</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="16">
         <v>9</v>
@@ -1611,32 +1626,29 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="55"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="81"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="8">
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="51">
         <v>1629</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="17">
         <v>8</v>
@@ -1647,32 +1659,29 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="55"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="81"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="8">
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="51">
         <v>1885</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="18">
         <v>3</v>
@@ -1683,32 +1692,29 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="55"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="67"/>
       <c r="M9" s="81"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="8">
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="51">
         <v>2068</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="19">
         <v>57</v>
@@ -1719,32 +1725,29 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="55"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="67"/>
       <c r="M10" s="81"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="8">
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="51">
         <v>2377</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="20">
         <v>65</v>
@@ -1755,32 +1758,29 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="55"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="81"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="8">
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="51">
         <v>2537</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="21">
         <v>25</v>
@@ -1791,32 +1791,29 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="55"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="81"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="8">
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="51">
         <v>2849</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="22">
         <v>34</v>
@@ -1827,32 +1824,29 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="55"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="67"/>
       <c r="M13" s="81"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="8">
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="51">
         <v>2912</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="23">
         <v>32</v>
@@ -1863,32 +1857,29 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="55"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="67"/>
       <c r="M14" s="81"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="8">
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="51">
         <v>2961</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="24">
         <v>110</v>
@@ -1899,32 +1890,29 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="55"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="67"/>
       <c r="M15" s="81"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="8">
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51">
         <v>2988</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="25">
         <v>70</v>
@@ -1935,32 +1923,29 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="55"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="67"/>
       <c r="M16" s="81"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="8">
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51">
         <v>3389</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="26">
         <v>97</v>
@@ -1971,32 +1956,29 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="55"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="67"/>
       <c r="M17" s="81"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="8">
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51">
         <v>3650</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="27">
         <v>75</v>
@@ -2007,32 +1989,29 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="55"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="67"/>
       <c r="M18" s="81"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="8">
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="51">
         <v>3714</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" s="28">
         <v>111</v>
@@ -2043,32 +2022,29 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="55"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="67"/>
       <c r="M19" s="81"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="8">
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51">
         <v>3748</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" s="29">
         <v>31</v>
@@ -2079,32 +2055,29 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="55"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="67"/>
       <c r="M20" s="81"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="85"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="8">
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51">
         <v>3941</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="30">
         <v>92</v>
@@ -2115,32 +2088,29 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="55"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="67"/>
       <c r="M21" s="81"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="8">
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51">
         <v>4242</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="31">
         <v>44</v>
@@ -2151,32 +2121,29 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="55"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="67"/>
       <c r="M22" s="81"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="8">
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51">
         <v>4464</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="32">
         <v>100</v>
@@ -2187,32 +2154,29 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="55"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="67"/>
       <c r="M23" s="81"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="8">
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51">
         <v>4472</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="33">
         <v>28</v>
@@ -2223,32 +2187,29 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="55"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="8">
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51">
         <v>4541</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="34">
         <v>10</v>
@@ -2259,32 +2220,29 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="55"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="67"/>
       <c r="M25" s="81"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="8">
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="51">
         <v>4949</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" s="35">
         <v>118</v>
@@ -2295,32 +2253,29 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="55"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="67"/>
       <c r="M26" s="81"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="85"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="8">
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51">
         <v>5115</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C27" s="36">
         <v>98</v>
@@ -2331,32 +2286,29 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="55"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="67"/>
       <c r="M27" s="81"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="85"/>
-      <c r="W27" s="85"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="8">
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51">
         <v>5243</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C28" s="37">
         <v>83</v>
@@ -2367,32 +2319,29 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="55"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="67"/>
       <c r="M28" s="81"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="8">
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="51">
         <v>5338</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C29" s="38">
         <v>29</v>
@@ -2403,32 +2352,29 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="55"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="67"/>
       <c r="M29" s="81"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="85"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="8">
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="51">
         <v>5549</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C30" s="39">
         <v>80</v>
@@ -2439,32 +2385,29 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="55"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="67"/>
       <c r="M30" s="81"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
-      <c r="W30" s="85"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="8">
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="51">
         <v>5587</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" s="40">
         <v>16</v>
@@ -2475,32 +2418,29 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="55"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="67"/>
       <c r="M31" s="81"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="85"/>
-      <c r="W31" s="85"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="85"/>
-      <c r="Z31" s="8">
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="51">
         <v>5830</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" s="41">
         <v>54</v>
@@ -2511,32 +2451,29 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="55"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="67"/>
       <c r="M32" s="81"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="85"/>
-      <c r="W32" s="85"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="85"/>
-      <c r="Z32" s="8">
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="51">
         <v>5945</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33" s="42">
         <v>96</v>
@@ -2547,32 +2484,29 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="55"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="67"/>
       <c r="M33" s="81"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="85"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="85"/>
-      <c r="Z33" s="8">
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="51">
         <v>6213</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" s="43">
         <v>124</v>
@@ -2583,32 +2517,29 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="55"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="67"/>
       <c r="M34" s="81"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="85"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="85"/>
-      <c r="Z34" s="8">
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="51">
         <v>6239</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C35" s="44">
         <v>69</v>
@@ -2619,32 +2550,29 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="55"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="67"/>
       <c r="M35" s="81"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="95"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="8">
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="78"/>
+      <c r="V35" s="70"/>
+      <c r="W35" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="51">
         <v>6326</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C36" s="45">
         <v>103</v>
@@ -2655,32 +2583,29 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="55"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="67"/>
       <c r="M36" s="81"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="85"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="85"/>
-      <c r="W36" s="85"/>
-      <c r="X36" s="95"/>
-      <c r="Y36" s="85"/>
-      <c r="Z36" s="8">
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70"/>
+      <c r="S36" s="70"/>
+      <c r="T36" s="70"/>
+      <c r="U36" s="78"/>
+      <c r="V36" s="70"/>
+      <c r="W36" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="51">
         <v>6584</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C37" s="46">
         <v>113</v>
@@ -2691,32 +2616,29 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="55"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="67"/>
       <c r="M37" s="81"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="85"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="85"/>
-      <c r="W37" s="85"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="85"/>
-      <c r="Z37" s="8">
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="51">
         <v>7714</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" s="47">
         <v>85</v>
@@ -2725,33 +2647,31 @@
       <c r="G38" s="10"/>
       <c r="H38" s="52"/>
       <c r="I38" s="52"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="82"/>
-      <c r="Z38" s="7">
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="68"/>
+      <c r="W38" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="51">
         <v>8357</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="10"/>
       <c r="H39" s="52"/>
       <c r="I39" s="52"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="82"/>
-      <c r="Z39" s="7">
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="68"/>
+      <c r="W39" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2761,23 +2681,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:N515"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.140625" style="61" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="61" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="61" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="61" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="64" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="60" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="60" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="103" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="63" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
@@ -2789,13 +2709,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="57"/>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="63"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -2805,57 +2725,51 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+    <row r="2" spans="1:14" s="94" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="58" t="s">
+      <c r="B2" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="70" t="s">
-        <v>20</v>
+      <c r="H2" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="99" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="56"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -2867,11 +2781,11 @@
     </row>
     <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="57"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -2882,11 +2796,11 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -2898,11 +2812,11 @@
     </row>
     <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="105"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -2914,11 +2828,11 @@
     </row>
     <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -2930,11 +2844,11 @@
     </row>
     <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -2946,11 +2860,11 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -2962,11 +2876,11 @@
     </row>
     <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -2978,11 +2892,11 @@
     </row>
     <row r="11" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="63"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -2994,11 +2908,11 @@
     </row>
     <row r="12" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="63"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -3010,11 +2924,11 @@
     </row>
     <row r="13" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="63"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -3026,11 +2940,11 @@
     </row>
     <row r="14" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="63"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -3042,11 +2956,11 @@
     </row>
     <row r="15" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="63"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -3058,11 +2972,11 @@
     </row>
     <row r="16" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="63"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -3074,11 +2988,11 @@
     </row>
     <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="63"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -3090,11 +3004,11 @@
     </row>
     <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="57"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="63"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -3106,11 +3020,11 @@
     </row>
     <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="57"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="63"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -3122,11 +3036,11 @@
     </row>
     <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="57"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="63"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -3138,11 +3052,11 @@
     </row>
     <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="57"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="63"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -3154,11 +3068,11 @@
     </row>
     <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="57"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="63"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -3170,11 +3084,11 @@
     </row>
     <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="57"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="63"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -3186,11 +3100,11 @@
     </row>
     <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="57"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="63"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -3202,11 +3116,11 @@
     </row>
     <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="57"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="63"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -3218,11 +3132,11 @@
     </row>
     <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="57"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="63"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -3234,11 +3148,11 @@
     </row>
     <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="57"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="63"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -3250,11 +3164,11 @@
     </row>
     <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="63"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -3266,11 +3180,11 @@
     </row>
     <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="63"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -3282,11 +3196,11 @@
     </row>
     <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="57"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="63"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -3298,11 +3212,11 @@
     </row>
     <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="57"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="63"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -3314,11 +3228,11 @@
     </row>
     <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="57"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="63"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -3330,11 +3244,11 @@
     </row>
     <row r="33" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="57"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="63"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -3346,11 +3260,11 @@
     </row>
     <row r="34" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="57"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="63"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -3362,11 +3276,11 @@
     </row>
     <row r="35" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="57"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="63"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -3378,11 +3292,11 @@
     </row>
     <row r="36" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="57"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="63"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -3394,11 +3308,11 @@
     </row>
     <row r="37" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="63"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -3410,11 +3324,11 @@
     </row>
     <row r="38" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="57"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="63"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -3426,11 +3340,11 @@
     </row>
     <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="63"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -3442,11 +3356,11 @@
     </row>
     <row r="40" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="57"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="63"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -3458,11 +3372,11 @@
     </row>
     <row r="41" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="57"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="63"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -3474,11 +3388,11 @@
     </row>
     <row r="42" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="57"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="63"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -3490,11 +3404,11 @@
     </row>
     <row r="43" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="57"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="63"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -3506,11 +3420,11 @@
     </row>
     <row r="44" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="57"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="63"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="62"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -3522,11 +3436,11 @@
     </row>
     <row r="45" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="57"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="63"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -3538,11 +3452,11 @@
     </row>
     <row r="46" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="57"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="63"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="62"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -3554,11 +3468,11 @@
     </row>
     <row r="47" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="57"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="63"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -3570,11 +3484,11 @@
     </row>
     <row r="48" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="57"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="63"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -3586,11 +3500,11 @@
     </row>
     <row r="49" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="57"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="63"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="62"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -3602,11 +3516,11 @@
     </row>
     <row r="50" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="57"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="63"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="62"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -3618,11 +3532,11 @@
     </row>
     <row r="51" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="57"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="63"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="62"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -3634,11 +3548,11 @@
     </row>
     <row r="52" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="57"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="63"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="62"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -3650,11 +3564,11 @@
     </row>
     <row r="53" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="57"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="63"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -3666,11 +3580,11 @@
     </row>
     <row r="54" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="57"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="63"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="62"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -3682,11 +3596,11 @@
     </row>
     <row r="55" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="57"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="63"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
@@ -3698,11 +3612,11 @@
     </row>
     <row r="56" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="57"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="63"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="62"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -3714,11 +3628,11 @@
     </row>
     <row r="57" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="57"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="63"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="62"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -3730,11 +3644,11 @@
     </row>
     <row r="58" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="57"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="63"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="62"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -3746,11 +3660,11 @@
     </row>
     <row r="59" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="57"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="63"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="62"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -3762,11 +3676,11 @@
     </row>
     <row r="60" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="57"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="63"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="62"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -3778,11 +3692,11 @@
     </row>
     <row r="61" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="57"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="63"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -3794,11 +3708,11 @@
     </row>
     <row r="62" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="57"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="63"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3810,11 +3724,11 @@
     </row>
     <row r="63" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="57"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="63"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -3826,11 +3740,11 @@
     </row>
     <row r="64" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="57"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="63"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="102"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -3842,11 +3756,11 @@
     </row>
     <row r="65" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="57"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="63"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="62"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -3858,11 +3772,11 @@
     </row>
     <row r="66" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="57"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="63"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="102"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3874,11 +3788,11 @@
     </row>
     <row r="67" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="57"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="63"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="62"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -3890,11 +3804,11 @@
     </row>
     <row r="68" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="57"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="63"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -3906,11 +3820,11 @@
     </row>
     <row r="69" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="57"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="63"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -3922,11 +3836,11 @@
     </row>
     <row r="70" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="57"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="63"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -3938,11 +3852,11 @@
     </row>
     <row r="71" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="57"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="63"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="62"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -3954,11 +3868,11 @@
     </row>
     <row r="72" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="57"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="63"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="102"/>
+      <c r="F72" s="62"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -3970,11 +3884,11 @@
     </row>
     <row r="73" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="57"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="63"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="102"/>
+      <c r="F73" s="62"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
@@ -3986,11 +3900,11 @@
     </row>
     <row r="74" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="57"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="63"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -4002,11 +3916,11 @@
     </row>
     <row r="75" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="57"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="63"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -4018,11 +3932,11 @@
     </row>
     <row r="76" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="57"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="63"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="62"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -4034,11 +3948,11 @@
     </row>
     <row r="77" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="57"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="63"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="102"/>
+      <c r="F77" s="62"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -4050,11 +3964,11 @@
     </row>
     <row r="78" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="57"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="63"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="62"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
@@ -4066,11 +3980,11 @@
     </row>
     <row r="79" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="57"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="63"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="62"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
@@ -4082,11 +3996,11 @@
     </row>
     <row r="80" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="57"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="63"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="102"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -4098,11 +4012,11 @@
     </row>
     <row r="81" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="57"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="63"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="102"/>
+      <c r="F81" s="62"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -4114,11 +4028,11 @@
     </row>
     <row r="82" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="57"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="63"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="102"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -4130,11 +4044,11 @@
     </row>
     <row r="83" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="57"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="63"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="102"/>
+      <c r="F83" s="62"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -4146,11 +4060,11 @@
     </row>
     <row r="84" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="57"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="63"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="102"/>
+      <c r="F84" s="62"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -4162,11 +4076,11 @@
     </row>
     <row r="85" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="57"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="63"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="102"/>
+      <c r="F85" s="62"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
@@ -4178,11 +4092,11 @@
     </row>
     <row r="86" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="57"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="63"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="102"/>
+      <c r="F86" s="62"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -4194,11 +4108,11 @@
     </row>
     <row r="87" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="57"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="63"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="62"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
@@ -4210,11 +4124,11 @@
     </row>
     <row r="88" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="57"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="63"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="102"/>
+      <c r="F88" s="62"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
@@ -4226,11 +4140,11 @@
     </row>
     <row r="89" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="57"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="63"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="102"/>
+      <c r="F89" s="62"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
@@ -4242,11 +4156,11 @@
     </row>
     <row r="90" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="57"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="63"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="102"/>
+      <c r="F90" s="62"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -4258,11 +4172,11 @@
     </row>
     <row r="91" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="57"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="63"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="102"/>
+      <c r="F91" s="62"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -4274,11 +4188,11 @@
     </row>
     <row r="92" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="57"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="60"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="63"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="102"/>
+      <c r="F92" s="62"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -4290,11 +4204,11 @@
     </row>
     <row r="93" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="57"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="63"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="62"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -4306,11 +4220,11 @@
     </row>
     <row r="94" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="57"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="63"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="102"/>
+      <c r="F94" s="62"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
@@ -4322,11 +4236,11 @@
     </row>
     <row r="95" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="57"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="63"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="102"/>
+      <c r="F95" s="62"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
@@ -4338,11 +4252,11 @@
     </row>
     <row r="96" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="57"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="63"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="102"/>
+      <c r="F96" s="62"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
@@ -4354,11 +4268,11 @@
     </row>
     <row r="97" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="57"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="63"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="102"/>
+      <c r="F97" s="62"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
@@ -4370,11 +4284,11 @@
     </row>
     <row r="98" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="57"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="63"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="102"/>
+      <c r="F98" s="62"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -4386,11 +4300,11 @@
     </row>
     <row r="99" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="57"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="63"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="102"/>
+      <c r="F99" s="62"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -4402,11 +4316,11 @@
     </row>
     <row r="100" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="57"/>
-      <c r="B100" s="60"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="63"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="62"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -4418,11 +4332,11 @@
     </row>
     <row r="101" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="57"/>
-      <c r="B101" s="60"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="63"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="62"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
@@ -4434,11 +4348,11 @@
     </row>
     <row r="102" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="57"/>
-      <c r="B102" s="60"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="63"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="102"/>
+      <c r="F102" s="62"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -4450,11 +4364,11 @@
     </row>
     <row r="103" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="57"/>
-      <c r="B103" s="60"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="63"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="102"/>
+      <c r="F103" s="62"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
@@ -4466,11 +4380,11 @@
     </row>
     <row r="104" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="57"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="63"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="102"/>
+      <c r="F104" s="62"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
@@ -4482,11 +4396,11 @@
     </row>
     <row r="105" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="57"/>
-      <c r="B105" s="60"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="63"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="102"/>
+      <c r="F105" s="62"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
@@ -4498,11 +4412,11 @@
     </row>
     <row r="106" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="57"/>
-      <c r="B106" s="60"/>
-      <c r="C106" s="60"/>
-      <c r="D106" s="60"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="63"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="102"/>
+      <c r="F106" s="62"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
@@ -4514,11 +4428,11 @@
     </row>
     <row r="107" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="57"/>
-      <c r="B107" s="60"/>
-      <c r="C107" s="60"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="63"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="102"/>
+      <c r="F107" s="62"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -4530,11 +4444,11 @@
     </row>
     <row r="108" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="57"/>
-      <c r="B108" s="60"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="63"/>
+      <c r="B108" s="59"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="102"/>
+      <c r="F108" s="62"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
@@ -4546,11 +4460,11 @@
     </row>
     <row r="109" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="57"/>
-      <c r="B109" s="60"/>
-      <c r="C109" s="60"/>
-      <c r="D109" s="60"/>
-      <c r="E109" s="60"/>
-      <c r="F109" s="63"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="59"/>
+      <c r="E109" s="102"/>
+      <c r="F109" s="62"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
@@ -4562,11 +4476,11 @@
     </row>
     <row r="110" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="57"/>
-      <c r="B110" s="60"/>
-      <c r="C110" s="60"/>
-      <c r="D110" s="60"/>
-      <c r="E110" s="60"/>
-      <c r="F110" s="63"/>
+      <c r="B110" s="59"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="102"/>
+      <c r="F110" s="62"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
@@ -4578,11 +4492,11 @@
     </row>
     <row r="111" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="57"/>
-      <c r="B111" s="60"/>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="60"/>
-      <c r="F111" s="63"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="102"/>
+      <c r="F111" s="62"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
@@ -4594,11 +4508,11 @@
     </row>
     <row r="112" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="57"/>
-      <c r="B112" s="60"/>
-      <c r="C112" s="60"/>
-      <c r="D112" s="60"/>
-      <c r="E112" s="60"/>
-      <c r="F112" s="63"/>
+      <c r="B112" s="59"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="102"/>
+      <c r="F112" s="62"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
@@ -4610,11 +4524,11 @@
     </row>
     <row r="113" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="57"/>
-      <c r="B113" s="60"/>
-      <c r="C113" s="60"/>
-      <c r="D113" s="60"/>
-      <c r="E113" s="60"/>
-      <c r="F113" s="63"/>
+      <c r="B113" s="59"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="102"/>
+      <c r="F113" s="62"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
@@ -4626,11 +4540,11 @@
     </row>
     <row r="114" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="57"/>
-      <c r="B114" s="60"/>
-      <c r="C114" s="60"/>
-      <c r="D114" s="60"/>
-      <c r="E114" s="60"/>
-      <c r="F114" s="63"/>
+      <c r="B114" s="59"/>
+      <c r="C114" s="59"/>
+      <c r="D114" s="59"/>
+      <c r="E114" s="102"/>
+      <c r="F114" s="62"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
@@ -4642,11 +4556,11 @@
     </row>
     <row r="115" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="57"/>
-      <c r="B115" s="60"/>
-      <c r="C115" s="60"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="63"/>
+      <c r="B115" s="59"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="102"/>
+      <c r="F115" s="62"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
@@ -4658,3207 +4572,3207 @@
     </row>
     <row r="116" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
-      <c r="B116" s="60"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="60"/>
-      <c r="E116" s="60"/>
+      <c r="B116" s="59"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="59"/>
+      <c r="E116" s="102"/>
       <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
-      <c r="B117" s="60"/>
-      <c r="C117" s="60"/>
-      <c r="D117" s="60"/>
-      <c r="E117" s="60"/>
+      <c r="B117" s="59"/>
+      <c r="C117" s="59"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="102"/>
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
-      <c r="B118" s="60"/>
-      <c r="C118" s="60"/>
-      <c r="D118" s="60"/>
-      <c r="E118" s="60"/>
+      <c r="B118" s="59"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="59"/>
+      <c r="E118" s="102"/>
       <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
-      <c r="B119" s="60"/>
-      <c r="C119" s="60"/>
-      <c r="D119" s="60"/>
-      <c r="E119" s="60"/>
+      <c r="B119" s="59"/>
+      <c r="C119" s="59"/>
+      <c r="D119" s="59"/>
+      <c r="E119" s="102"/>
       <c r="N119" s="1"/>
     </row>
     <row r="120" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
-      <c r="B120" s="60"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="60"/>
-      <c r="E120" s="60"/>
+      <c r="B120" s="59"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="59"/>
+      <c r="E120" s="102"/>
       <c r="N120" s="1"/>
     </row>
     <row r="121" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
-      <c r="B121" s="60"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60"/>
+      <c r="B121" s="59"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="102"/>
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
-      <c r="B122" s="60"/>
-      <c r="C122" s="60"/>
-      <c r="D122" s="60"/>
-      <c r="E122" s="60"/>
+      <c r="B122" s="59"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="59"/>
+      <c r="E122" s="102"/>
       <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
-      <c r="B123" s="60"/>
-      <c r="C123" s="60"/>
-      <c r="D123" s="60"/>
-      <c r="E123" s="60"/>
+      <c r="B123" s="59"/>
+      <c r="C123" s="59"/>
+      <c r="D123" s="59"/>
+      <c r="E123" s="102"/>
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
-      <c r="B124" s="60"/>
-      <c r="C124" s="60"/>
-      <c r="D124" s="60"/>
-      <c r="E124" s="60"/>
+      <c r="B124" s="59"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="59"/>
+      <c r="E124" s="102"/>
       <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
-      <c r="B125" s="60"/>
-      <c r="C125" s="60"/>
-      <c r="D125" s="60"/>
-      <c r="E125" s="60"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="59"/>
+      <c r="D125" s="59"/>
+      <c r="E125" s="102"/>
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
-      <c r="B126" s="60"/>
-      <c r="C126" s="60"/>
-      <c r="D126" s="60"/>
-      <c r="E126" s="60"/>
+      <c r="B126" s="59"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="59"/>
+      <c r="E126" s="102"/>
       <c r="N126" s="1"/>
     </row>
     <row r="127" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
-      <c r="B127" s="60"/>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
-      <c r="E127" s="60"/>
+      <c r="B127" s="59"/>
+      <c r="C127" s="59"/>
+      <c r="D127" s="59"/>
+      <c r="E127" s="102"/>
       <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
-      <c r="B128" s="60"/>
-      <c r="C128" s="60"/>
-      <c r="D128" s="60"/>
-      <c r="E128" s="60"/>
+      <c r="B128" s="59"/>
+      <c r="C128" s="59"/>
+      <c r="D128" s="59"/>
+      <c r="E128" s="102"/>
       <c r="N128" s="1"/>
     </row>
     <row r="129" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
-      <c r="B129" s="60"/>
-      <c r="C129" s="60"/>
-      <c r="D129" s="60"/>
-      <c r="E129" s="60"/>
+      <c r="B129" s="59"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="59"/>
+      <c r="E129" s="102"/>
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
-      <c r="B130" s="60"/>
-      <c r="C130" s="60"/>
-      <c r="D130" s="60"/>
-      <c r="E130" s="60"/>
+      <c r="B130" s="59"/>
+      <c r="C130" s="59"/>
+      <c r="D130" s="59"/>
+      <c r="E130" s="102"/>
       <c r="N130" s="1"/>
     </row>
     <row r="131" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
-      <c r="B131" s="60"/>
-      <c r="C131" s="60"/>
-      <c r="D131" s="60"/>
-      <c r="E131" s="60"/>
+      <c r="B131" s="59"/>
+      <c r="C131" s="59"/>
+      <c r="D131" s="59"/>
+      <c r="E131" s="102"/>
       <c r="N131" s="1"/>
     </row>
     <row r="132" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
-      <c r="B132" s="60"/>
-      <c r="C132" s="60"/>
-      <c r="D132" s="60"/>
-      <c r="E132" s="60"/>
+      <c r="B132" s="59"/>
+      <c r="C132" s="59"/>
+      <c r="D132" s="59"/>
+      <c r="E132" s="102"/>
       <c r="N132" s="1"/>
     </row>
     <row r="133" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
-      <c r="B133" s="60"/>
-      <c r="C133" s="60"/>
-      <c r="D133" s="60"/>
-      <c r="E133" s="60"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="59"/>
+      <c r="E133" s="102"/>
       <c r="N133" s="1"/>
     </row>
     <row r="134" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
-      <c r="B134" s="60"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="60"/>
-      <c r="E134" s="60"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="59"/>
+      <c r="D134" s="59"/>
+      <c r="E134" s="102"/>
       <c r="N134" s="1"/>
     </row>
     <row r="135" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
-      <c r="B135" s="60"/>
-      <c r="C135" s="60"/>
-      <c r="D135" s="60"/>
-      <c r="E135" s="60"/>
+      <c r="B135" s="59"/>
+      <c r="C135" s="59"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="102"/>
       <c r="N135" s="1"/>
     </row>
     <row r="136" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
-      <c r="B136" s="60"/>
-      <c r="C136" s="60"/>
-      <c r="D136" s="60"/>
-      <c r="E136" s="60"/>
+      <c r="B136" s="59"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="59"/>
+      <c r="E136" s="102"/>
       <c r="N136" s="1"/>
     </row>
     <row r="137" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
-      <c r="B137" s="60"/>
-      <c r="C137" s="60"/>
-      <c r="D137" s="60"/>
-      <c r="E137" s="60"/>
+      <c r="B137" s="59"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="59"/>
+      <c r="E137" s="102"/>
       <c r="N137" s="1"/>
     </row>
     <row r="138" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
-      <c r="B138" s="60"/>
-      <c r="C138" s="60"/>
-      <c r="D138" s="60"/>
-      <c r="E138" s="60"/>
+      <c r="B138" s="59"/>
+      <c r="C138" s="59"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="102"/>
       <c r="N138" s="1"/>
     </row>
     <row r="139" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
-      <c r="B139" s="60"/>
-      <c r="C139" s="60"/>
-      <c r="D139" s="60"/>
-      <c r="E139" s="60"/>
+      <c r="B139" s="59"/>
+      <c r="C139" s="59"/>
+      <c r="D139" s="59"/>
+      <c r="E139" s="102"/>
       <c r="N139" s="1"/>
     </row>
     <row r="140" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
-      <c r="B140" s="60"/>
-      <c r="C140" s="60"/>
-      <c r="D140" s="60"/>
-      <c r="E140" s="60"/>
+      <c r="B140" s="59"/>
+      <c r="C140" s="59"/>
+      <c r="D140" s="59"/>
+      <c r="E140" s="102"/>
       <c r="N140" s="1"/>
     </row>
     <row r="141" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
-      <c r="B141" s="60"/>
-      <c r="C141" s="60"/>
-      <c r="D141" s="60"/>
-      <c r="E141" s="60"/>
+      <c r="B141" s="59"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="59"/>
+      <c r="E141" s="102"/>
       <c r="N141" s="1"/>
     </row>
     <row r="142" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
-      <c r="B142" s="60"/>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="60"/>
+      <c r="B142" s="59"/>
+      <c r="C142" s="59"/>
+      <c r="D142" s="59"/>
+      <c r="E142" s="102"/>
       <c r="N142" s="1"/>
     </row>
     <row r="143" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
-      <c r="B143" s="60"/>
-      <c r="C143" s="60"/>
-      <c r="D143" s="60"/>
-      <c r="E143" s="60"/>
+      <c r="B143" s="59"/>
+      <c r="C143" s="59"/>
+      <c r="D143" s="59"/>
+      <c r="E143" s="102"/>
       <c r="N143" s="1"/>
     </row>
     <row r="144" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
-      <c r="B144" s="60"/>
-      <c r="C144" s="60"/>
-      <c r="D144" s="60"/>
-      <c r="E144" s="60"/>
+      <c r="B144" s="59"/>
+      <c r="C144" s="59"/>
+      <c r="D144" s="59"/>
+      <c r="E144" s="102"/>
       <c r="N144" s="1"/>
     </row>
     <row r="145" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
-      <c r="B145" s="60"/>
-      <c r="C145" s="60"/>
-      <c r="D145" s="60"/>
-      <c r="E145" s="60"/>
+      <c r="B145" s="59"/>
+      <c r="C145" s="59"/>
+      <c r="D145" s="59"/>
+      <c r="E145" s="102"/>
       <c r="N145" s="1"/>
     </row>
     <row r="146" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
-      <c r="B146" s="60"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="60"/>
+      <c r="B146" s="59"/>
+      <c r="C146" s="59"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="102"/>
       <c r="N146" s="1"/>
     </row>
     <row r="147" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
-      <c r="B147" s="60"/>
-      <c r="C147" s="60"/>
-      <c r="D147" s="60"/>
-      <c r="E147" s="60"/>
+      <c r="B147" s="59"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="102"/>
       <c r="N147" s="1"/>
     </row>
     <row r="148" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
-      <c r="B148" s="60"/>
-      <c r="C148" s="60"/>
-      <c r="D148" s="60"/>
-      <c r="E148" s="60"/>
+      <c r="B148" s="59"/>
+      <c r="C148" s="59"/>
+      <c r="D148" s="59"/>
+      <c r="E148" s="102"/>
       <c r="N148" s="1"/>
     </row>
     <row r="149" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
-      <c r="B149" s="60"/>
-      <c r="C149" s="60"/>
-      <c r="D149" s="60"/>
-      <c r="E149" s="60"/>
+      <c r="B149" s="59"/>
+      <c r="C149" s="59"/>
+      <c r="D149" s="59"/>
+      <c r="E149" s="102"/>
       <c r="N149" s="1"/>
     </row>
     <row r="150" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
-      <c r="B150" s="60"/>
-      <c r="C150" s="60"/>
-      <c r="D150" s="60"/>
-      <c r="E150" s="60"/>
+      <c r="B150" s="59"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="59"/>
+      <c r="E150" s="102"/>
       <c r="N150" s="1"/>
     </row>
     <row r="151" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
-      <c r="B151" s="60"/>
-      <c r="C151" s="60"/>
-      <c r="D151" s="60"/>
-      <c r="E151" s="60"/>
+      <c r="B151" s="59"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="102"/>
       <c r="N151" s="1"/>
     </row>
     <row r="152" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
-      <c r="B152" s="60"/>
-      <c r="C152" s="60"/>
-      <c r="D152" s="60"/>
-      <c r="E152" s="60"/>
+      <c r="B152" s="59"/>
+      <c r="C152" s="59"/>
+      <c r="D152" s="59"/>
+      <c r="E152" s="102"/>
       <c r="N152" s="1"/>
     </row>
     <row r="153" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
-      <c r="B153" s="60"/>
-      <c r="C153" s="60"/>
-      <c r="D153" s="60"/>
-      <c r="E153" s="60"/>
+      <c r="B153" s="59"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="59"/>
+      <c r="E153" s="102"/>
       <c r="N153" s="1"/>
     </row>
     <row r="154" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
-      <c r="B154" s="60"/>
-      <c r="C154" s="60"/>
-      <c r="D154" s="60"/>
-      <c r="E154" s="60"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="59"/>
+      <c r="E154" s="102"/>
       <c r="N154" s="1"/>
     </row>
     <row r="155" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
-      <c r="B155" s="60"/>
-      <c r="C155" s="60"/>
-      <c r="D155" s="60"/>
-      <c r="E155" s="60"/>
+      <c r="B155" s="59"/>
+      <c r="C155" s="59"/>
+      <c r="D155" s="59"/>
+      <c r="E155" s="102"/>
       <c r="N155" s="1"/>
     </row>
     <row r="156" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
-      <c r="B156" s="60"/>
-      <c r="C156" s="60"/>
-      <c r="D156" s="60"/>
-      <c r="E156" s="60"/>
+      <c r="B156" s="59"/>
+      <c r="C156" s="59"/>
+      <c r="D156" s="59"/>
+      <c r="E156" s="102"/>
       <c r="N156" s="1"/>
     </row>
     <row r="157" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
-      <c r="B157" s="60"/>
-      <c r="C157" s="60"/>
-      <c r="D157" s="60"/>
-      <c r="E157" s="60"/>
+      <c r="B157" s="59"/>
+      <c r="C157" s="59"/>
+      <c r="D157" s="59"/>
+      <c r="E157" s="102"/>
       <c r="N157" s="1"/>
     </row>
     <row r="158" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
-      <c r="B158" s="60"/>
-      <c r="C158" s="60"/>
-      <c r="D158" s="60"/>
-      <c r="E158" s="60"/>
+      <c r="B158" s="59"/>
+      <c r="C158" s="59"/>
+      <c r="D158" s="59"/>
+      <c r="E158" s="102"/>
       <c r="N158" s="1"/>
     </row>
     <row r="159" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
-      <c r="B159" s="60"/>
-      <c r="C159" s="60"/>
-      <c r="D159" s="60"/>
-      <c r="E159" s="60"/>
+      <c r="B159" s="59"/>
+      <c r="C159" s="59"/>
+      <c r="D159" s="59"/>
+      <c r="E159" s="102"/>
       <c r="N159" s="1"/>
     </row>
     <row r="160" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
-      <c r="B160" s="60"/>
-      <c r="C160" s="60"/>
-      <c r="D160" s="60"/>
-      <c r="E160" s="60"/>
+      <c r="B160" s="59"/>
+      <c r="C160" s="59"/>
+      <c r="D160" s="59"/>
+      <c r="E160" s="102"/>
       <c r="N160" s="1"/>
     </row>
     <row r="161" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
-      <c r="B161" s="60"/>
-      <c r="C161" s="60"/>
-      <c r="D161" s="60"/>
-      <c r="E161" s="60"/>
+      <c r="B161" s="59"/>
+      <c r="C161" s="59"/>
+      <c r="D161" s="59"/>
+      <c r="E161" s="102"/>
       <c r="N161" s="1"/>
     </row>
     <row r="162" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
-      <c r="B162" s="60"/>
-      <c r="C162" s="60"/>
-      <c r="D162" s="60"/>
-      <c r="E162" s="60"/>
+      <c r="B162" s="59"/>
+      <c r="C162" s="59"/>
+      <c r="D162" s="59"/>
+      <c r="E162" s="102"/>
       <c r="N162" s="1"/>
     </row>
     <row r="163" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
-      <c r="B163" s="60"/>
-      <c r="C163" s="60"/>
-      <c r="D163" s="60"/>
-      <c r="E163" s="60"/>
+      <c r="B163" s="59"/>
+      <c r="C163" s="59"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="102"/>
       <c r="N163" s="1"/>
     </row>
     <row r="164" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
-      <c r="B164" s="60"/>
-      <c r="C164" s="60"/>
-      <c r="D164" s="60"/>
-      <c r="E164" s="60"/>
+      <c r="B164" s="59"/>
+      <c r="C164" s="59"/>
+      <c r="D164" s="59"/>
+      <c r="E164" s="102"/>
       <c r="N164" s="1"/>
     </row>
     <row r="165" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
-      <c r="B165" s="60"/>
-      <c r="C165" s="60"/>
-      <c r="D165" s="60"/>
-      <c r="E165" s="60"/>
+      <c r="B165" s="59"/>
+      <c r="C165" s="59"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="102"/>
       <c r="N165" s="1"/>
     </row>
     <row r="166" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
-      <c r="B166" s="60"/>
-      <c r="C166" s="60"/>
-      <c r="D166" s="60"/>
-      <c r="E166" s="60"/>
+      <c r="B166" s="59"/>
+      <c r="C166" s="59"/>
+      <c r="D166" s="59"/>
+      <c r="E166" s="102"/>
       <c r="N166" s="1"/>
     </row>
     <row r="167" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
-      <c r="B167" s="60"/>
-      <c r="C167" s="60"/>
-      <c r="D167" s="60"/>
-      <c r="E167" s="60"/>
+      <c r="B167" s="59"/>
+      <c r="C167" s="59"/>
+      <c r="D167" s="59"/>
+      <c r="E167" s="102"/>
       <c r="N167" s="1"/>
     </row>
     <row r="168" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
-      <c r="B168" s="60"/>
-      <c r="C168" s="60"/>
-      <c r="D168" s="60"/>
-      <c r="E168" s="60"/>
+      <c r="B168" s="59"/>
+      <c r="C168" s="59"/>
+      <c r="D168" s="59"/>
+      <c r="E168" s="102"/>
       <c r="N168" s="1"/>
     </row>
     <row r="169" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
-      <c r="B169" s="60"/>
-      <c r="C169" s="60"/>
-      <c r="D169" s="60"/>
-      <c r="E169" s="60"/>
+      <c r="B169" s="59"/>
+      <c r="C169" s="59"/>
+      <c r="D169" s="59"/>
+      <c r="E169" s="102"/>
       <c r="N169" s="1"/>
     </row>
     <row r="170" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
-      <c r="B170" s="60"/>
-      <c r="C170" s="60"/>
-      <c r="D170" s="60"/>
-      <c r="E170" s="60"/>
+      <c r="B170" s="59"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="59"/>
+      <c r="E170" s="102"/>
       <c r="N170" s="1"/>
     </row>
     <row r="171" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
-      <c r="B171" s="60"/>
-      <c r="C171" s="60"/>
-      <c r="D171" s="60"/>
-      <c r="E171" s="60"/>
+      <c r="B171" s="59"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="102"/>
       <c r="N171" s="1"/>
     </row>
     <row r="172" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
-      <c r="B172" s="60"/>
-      <c r="C172" s="60"/>
-      <c r="D172" s="60"/>
-      <c r="E172" s="60"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="59"/>
+      <c r="D172" s="59"/>
+      <c r="E172" s="102"/>
       <c r="N172" s="1"/>
     </row>
     <row r="173" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
-      <c r="B173" s="60"/>
-      <c r="C173" s="60"/>
-      <c r="D173" s="60"/>
-      <c r="E173" s="60"/>
+      <c r="B173" s="59"/>
+      <c r="C173" s="59"/>
+      <c r="D173" s="59"/>
+      <c r="E173" s="102"/>
       <c r="N173" s="1"/>
     </row>
     <row r="174" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
-      <c r="B174" s="60"/>
-      <c r="C174" s="60"/>
-      <c r="D174" s="60"/>
-      <c r="E174" s="60"/>
+      <c r="B174" s="59"/>
+      <c r="C174" s="59"/>
+      <c r="D174" s="59"/>
+      <c r="E174" s="102"/>
       <c r="N174" s="1"/>
     </row>
     <row r="175" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
-      <c r="B175" s="60"/>
-      <c r="C175" s="60"/>
-      <c r="D175" s="60"/>
-      <c r="E175" s="60"/>
+      <c r="B175" s="59"/>
+      <c r="C175" s="59"/>
+      <c r="D175" s="59"/>
+      <c r="E175" s="102"/>
       <c r="N175" s="1"/>
     </row>
     <row r="176" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
-      <c r="B176" s="60"/>
-      <c r="C176" s="60"/>
-      <c r="D176" s="60"/>
-      <c r="E176" s="60"/>
+      <c r="B176" s="59"/>
+      <c r="C176" s="59"/>
+      <c r="D176" s="59"/>
+      <c r="E176" s="102"/>
       <c r="N176" s="1"/>
     </row>
     <row r="177" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
-      <c r="B177" s="60"/>
-      <c r="C177" s="60"/>
-      <c r="D177" s="60"/>
-      <c r="E177" s="60"/>
+      <c r="B177" s="59"/>
+      <c r="C177" s="59"/>
+      <c r="D177" s="59"/>
+      <c r="E177" s="102"/>
       <c r="N177" s="1"/>
     </row>
     <row r="178" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
-      <c r="B178" s="60"/>
-      <c r="C178" s="60"/>
-      <c r="D178" s="60"/>
-      <c r="E178" s="60"/>
+      <c r="B178" s="59"/>
+      <c r="C178" s="59"/>
+      <c r="D178" s="59"/>
+      <c r="E178" s="102"/>
       <c r="N178" s="1"/>
     </row>
     <row r="179" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
-      <c r="B179" s="60"/>
-      <c r="C179" s="60"/>
-      <c r="D179" s="60"/>
-      <c r="E179" s="60"/>
+      <c r="B179" s="59"/>
+      <c r="C179" s="59"/>
+      <c r="D179" s="59"/>
+      <c r="E179" s="102"/>
       <c r="N179" s="1"/>
     </row>
     <row r="180" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
-      <c r="B180" s="60"/>
-      <c r="C180" s="60"/>
-      <c r="D180" s="60"/>
-      <c r="E180" s="60"/>
+      <c r="B180" s="59"/>
+      <c r="C180" s="59"/>
+      <c r="D180" s="59"/>
+      <c r="E180" s="102"/>
       <c r="N180" s="1"/>
     </row>
     <row r="181" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
-      <c r="B181" s="60"/>
-      <c r="C181" s="60"/>
-      <c r="D181" s="60"/>
-      <c r="E181" s="60"/>
+      <c r="B181" s="59"/>
+      <c r="C181" s="59"/>
+      <c r="D181" s="59"/>
+      <c r="E181" s="102"/>
       <c r="N181" s="1"/>
     </row>
     <row r="182" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
-      <c r="B182" s="60"/>
-      <c r="C182" s="60"/>
-      <c r="D182" s="60"/>
-      <c r="E182" s="60"/>
+      <c r="B182" s="59"/>
+      <c r="C182" s="59"/>
+      <c r="D182" s="59"/>
+      <c r="E182" s="102"/>
       <c r="N182" s="1"/>
     </row>
     <row r="183" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="6"/>
-      <c r="B183" s="60"/>
-      <c r="C183" s="60"/>
-      <c r="D183" s="60"/>
-      <c r="E183" s="60"/>
+      <c r="B183" s="59"/>
+      <c r="C183" s="59"/>
+      <c r="D183" s="59"/>
+      <c r="E183" s="102"/>
       <c r="N183" s="1"/>
     </row>
     <row r="184" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="6"/>
-      <c r="B184" s="60"/>
-      <c r="C184" s="60"/>
-      <c r="D184" s="60"/>
-      <c r="E184" s="60"/>
+      <c r="B184" s="59"/>
+      <c r="C184" s="59"/>
+      <c r="D184" s="59"/>
+      <c r="E184" s="102"/>
       <c r="N184" s="1"/>
     </row>
     <row r="185" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="6"/>
-      <c r="B185" s="60"/>
-      <c r="C185" s="60"/>
-      <c r="D185" s="60"/>
-      <c r="E185" s="60"/>
+      <c r="B185" s="59"/>
+      <c r="C185" s="59"/>
+      <c r="D185" s="59"/>
+      <c r="E185" s="102"/>
       <c r="N185" s="1"/>
     </row>
     <row r="186" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="6"/>
-      <c r="B186" s="60"/>
-      <c r="C186" s="60"/>
-      <c r="D186" s="60"/>
-      <c r="E186" s="60"/>
+      <c r="B186" s="59"/>
+      <c r="C186" s="59"/>
+      <c r="D186" s="59"/>
+      <c r="E186" s="102"/>
       <c r="N186" s="1"/>
     </row>
     <row r="187" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="6"/>
-      <c r="B187" s="60"/>
-      <c r="C187" s="60"/>
-      <c r="D187" s="60"/>
-      <c r="E187" s="60"/>
+      <c r="B187" s="59"/>
+      <c r="C187" s="59"/>
+      <c r="D187" s="59"/>
+      <c r="E187" s="102"/>
       <c r="N187" s="1"/>
     </row>
     <row r="188" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="6"/>
-      <c r="B188" s="60"/>
-      <c r="C188" s="60"/>
-      <c r="D188" s="60"/>
-      <c r="E188" s="60"/>
+      <c r="B188" s="59"/>
+      <c r="C188" s="59"/>
+      <c r="D188" s="59"/>
+      <c r="E188" s="102"/>
       <c r="N188" s="1"/>
     </row>
     <row r="189" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="6"/>
-      <c r="B189" s="60"/>
-      <c r="C189" s="60"/>
-      <c r="D189" s="60"/>
-      <c r="E189" s="60"/>
+      <c r="B189" s="59"/>
+      <c r="C189" s="59"/>
+      <c r="D189" s="59"/>
+      <c r="E189" s="102"/>
       <c r="N189" s="1"/>
     </row>
     <row r="190" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="6"/>
-      <c r="B190" s="60"/>
-      <c r="C190" s="60"/>
-      <c r="D190" s="60"/>
-      <c r="E190" s="60"/>
+      <c r="B190" s="59"/>
+      <c r="C190" s="59"/>
+      <c r="D190" s="59"/>
+      <c r="E190" s="102"/>
       <c r="N190" s="1"/>
     </row>
     <row r="191" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="6"/>
-      <c r="B191" s="60"/>
-      <c r="C191" s="60"/>
-      <c r="D191" s="60"/>
-      <c r="E191" s="60"/>
+      <c r="B191" s="59"/>
+      <c r="C191" s="59"/>
+      <c r="D191" s="59"/>
+      <c r="E191" s="102"/>
       <c r="N191" s="1"/>
     </row>
     <row r="192" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="6"/>
-      <c r="B192" s="60"/>
-      <c r="C192" s="60"/>
-      <c r="D192" s="60"/>
-      <c r="E192" s="60"/>
+      <c r="B192" s="59"/>
+      <c r="C192" s="59"/>
+      <c r="D192" s="59"/>
+      <c r="E192" s="102"/>
       <c r="N192" s="1"/>
     </row>
     <row r="193" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="6"/>
-      <c r="B193" s="60"/>
-      <c r="C193" s="60"/>
-      <c r="D193" s="60"/>
-      <c r="E193" s="60"/>
+      <c r="B193" s="59"/>
+      <c r="C193" s="59"/>
+      <c r="D193" s="59"/>
+      <c r="E193" s="102"/>
       <c r="N193" s="1"/>
     </row>
     <row r="194" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="6"/>
-      <c r="B194" s="60"/>
-      <c r="C194" s="60"/>
-      <c r="D194" s="60"/>
-      <c r="E194" s="60"/>
+      <c r="B194" s="59"/>
+      <c r="C194" s="59"/>
+      <c r="D194" s="59"/>
+      <c r="E194" s="102"/>
       <c r="N194" s="1"/>
     </row>
     <row r="195" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="6"/>
-      <c r="B195" s="60"/>
-      <c r="C195" s="60"/>
-      <c r="D195" s="60"/>
-      <c r="E195" s="60"/>
+      <c r="B195" s="59"/>
+      <c r="C195" s="59"/>
+      <c r="D195" s="59"/>
+      <c r="E195" s="102"/>
       <c r="N195" s="1"/>
     </row>
     <row r="196" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="6"/>
-      <c r="B196" s="60"/>
-      <c r="C196" s="60"/>
-      <c r="D196" s="60"/>
-      <c r="E196" s="60"/>
+      <c r="B196" s="59"/>
+      <c r="C196" s="59"/>
+      <c r="D196" s="59"/>
+      <c r="E196" s="102"/>
       <c r="N196" s="1"/>
     </row>
     <row r="197" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="6"/>
-      <c r="B197" s="60"/>
-      <c r="C197" s="60"/>
-      <c r="D197" s="60"/>
-      <c r="E197" s="60"/>
+      <c r="B197" s="59"/>
+      <c r="C197" s="59"/>
+      <c r="D197" s="59"/>
+      <c r="E197" s="102"/>
       <c r="N197" s="1"/>
     </row>
     <row r="198" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="6"/>
-      <c r="B198" s="60"/>
-      <c r="C198" s="60"/>
-      <c r="D198" s="60"/>
-      <c r="E198" s="60"/>
+      <c r="B198" s="59"/>
+      <c r="C198" s="59"/>
+      <c r="D198" s="59"/>
+      <c r="E198" s="102"/>
       <c r="N198" s="1"/>
     </row>
     <row r="199" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="6"/>
-      <c r="B199" s="60"/>
-      <c r="C199" s="60"/>
-      <c r="D199" s="60"/>
-      <c r="E199" s="60"/>
+      <c r="B199" s="59"/>
+      <c r="C199" s="59"/>
+      <c r="D199" s="59"/>
+      <c r="E199" s="102"/>
       <c r="N199" s="1"/>
     </row>
     <row r="200" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="6"/>
-      <c r="B200" s="60"/>
-      <c r="C200" s="60"/>
-      <c r="D200" s="60"/>
-      <c r="E200" s="60"/>
+      <c r="B200" s="59"/>
+      <c r="C200" s="59"/>
+      <c r="D200" s="59"/>
+      <c r="E200" s="102"/>
       <c r="N200" s="1"/>
     </row>
     <row r="201" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="6"/>
-      <c r="B201" s="60"/>
-      <c r="C201" s="60"/>
-      <c r="D201" s="60"/>
-      <c r="E201" s="60"/>
+      <c r="B201" s="59"/>
+      <c r="C201" s="59"/>
+      <c r="D201" s="59"/>
+      <c r="E201" s="102"/>
       <c r="N201" s="1"/>
     </row>
     <row r="202" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="6"/>
-      <c r="B202" s="60"/>
-      <c r="C202" s="60"/>
-      <c r="D202" s="60"/>
-      <c r="E202" s="60"/>
+      <c r="B202" s="59"/>
+      <c r="C202" s="59"/>
+      <c r="D202" s="59"/>
+      <c r="E202" s="102"/>
       <c r="N202" s="1"/>
     </row>
     <row r="203" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="6"/>
-      <c r="B203" s="60"/>
-      <c r="C203" s="60"/>
-      <c r="D203" s="60"/>
-      <c r="E203" s="60"/>
+      <c r="B203" s="59"/>
+      <c r="C203" s="59"/>
+      <c r="D203" s="59"/>
+      <c r="E203" s="102"/>
       <c r="N203" s="1"/>
     </row>
     <row r="204" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="6"/>
-      <c r="B204" s="60"/>
-      <c r="C204" s="60"/>
-      <c r="D204" s="60"/>
-      <c r="E204" s="60"/>
+      <c r="B204" s="59"/>
+      <c r="C204" s="59"/>
+      <c r="D204" s="59"/>
+      <c r="E204" s="102"/>
       <c r="N204" s="1"/>
     </row>
     <row r="205" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="6"/>
-      <c r="B205" s="60"/>
-      <c r="C205" s="60"/>
-      <c r="D205" s="60"/>
-      <c r="E205" s="60"/>
+      <c r="B205" s="59"/>
+      <c r="C205" s="59"/>
+      <c r="D205" s="59"/>
+      <c r="E205" s="102"/>
       <c r="N205" s="1"/>
     </row>
     <row r="206" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="6"/>
-      <c r="B206" s="60"/>
-      <c r="C206" s="60"/>
-      <c r="D206" s="60"/>
-      <c r="E206" s="60"/>
+      <c r="B206" s="59"/>
+      <c r="C206" s="59"/>
+      <c r="D206" s="59"/>
+      <c r="E206" s="102"/>
       <c r="N206" s="1"/>
     </row>
     <row r="207" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="6"/>
-      <c r="B207" s="60"/>
-      <c r="C207" s="60"/>
-      <c r="D207" s="60"/>
-      <c r="E207" s="60"/>
+      <c r="B207" s="59"/>
+      <c r="C207" s="59"/>
+      <c r="D207" s="59"/>
+      <c r="E207" s="102"/>
       <c r="N207" s="1"/>
     </row>
     <row r="208" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="6"/>
-      <c r="B208" s="60"/>
-      <c r="C208" s="60"/>
-      <c r="D208" s="60"/>
-      <c r="E208" s="60"/>
+      <c r="B208" s="59"/>
+      <c r="C208" s="59"/>
+      <c r="D208" s="59"/>
+      <c r="E208" s="102"/>
       <c r="N208" s="1"/>
     </row>
     <row r="209" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="6"/>
-      <c r="B209" s="60"/>
-      <c r="C209" s="60"/>
-      <c r="D209" s="60"/>
-      <c r="E209" s="60"/>
+      <c r="B209" s="59"/>
+      <c r="C209" s="59"/>
+      <c r="D209" s="59"/>
+      <c r="E209" s="102"/>
       <c r="N209" s="1"/>
     </row>
     <row r="210" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="6"/>
-      <c r="B210" s="60"/>
-      <c r="C210" s="60"/>
-      <c r="D210" s="60"/>
-      <c r="E210" s="60"/>
+      <c r="B210" s="59"/>
+      <c r="C210" s="59"/>
+      <c r="D210" s="59"/>
+      <c r="E210" s="102"/>
       <c r="N210" s="1"/>
     </row>
     <row r="211" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="6"/>
-      <c r="B211" s="60"/>
-      <c r="C211" s="60"/>
-      <c r="D211" s="60"/>
-      <c r="E211" s="60"/>
+      <c r="B211" s="59"/>
+      <c r="C211" s="59"/>
+      <c r="D211" s="59"/>
+      <c r="E211" s="102"/>
       <c r="N211" s="1"/>
     </row>
     <row r="212" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="6"/>
-      <c r="B212" s="60"/>
-      <c r="C212" s="60"/>
-      <c r="D212" s="60"/>
-      <c r="E212" s="60"/>
+      <c r="B212" s="59"/>
+      <c r="C212" s="59"/>
+      <c r="D212" s="59"/>
+      <c r="E212" s="102"/>
       <c r="N212" s="1"/>
     </row>
     <row r="213" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="6"/>
-      <c r="B213" s="60"/>
-      <c r="C213" s="60"/>
-      <c r="D213" s="60"/>
-      <c r="E213" s="60"/>
+      <c r="B213" s="59"/>
+      <c r="C213" s="59"/>
+      <c r="D213" s="59"/>
+      <c r="E213" s="102"/>
       <c r="N213" s="1"/>
     </row>
     <row r="214" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="6"/>
-      <c r="B214" s="60"/>
-      <c r="C214" s="60"/>
-      <c r="D214" s="60"/>
-      <c r="E214" s="60"/>
+      <c r="B214" s="59"/>
+      <c r="C214" s="59"/>
+      <c r="D214" s="59"/>
+      <c r="E214" s="102"/>
       <c r="N214" s="1"/>
     </row>
     <row r="215" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="6"/>
-      <c r="B215" s="60"/>
-      <c r="C215" s="60"/>
-      <c r="D215" s="60"/>
-      <c r="E215" s="60"/>
+      <c r="B215" s="59"/>
+      <c r="C215" s="59"/>
+      <c r="D215" s="59"/>
+      <c r="E215" s="102"/>
       <c r="N215" s="1"/>
     </row>
     <row r="216" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="6"/>
-      <c r="B216" s="60"/>
-      <c r="C216" s="60"/>
-      <c r="D216" s="60"/>
-      <c r="E216" s="60"/>
+      <c r="B216" s="59"/>
+      <c r="C216" s="59"/>
+      <c r="D216" s="59"/>
+      <c r="E216" s="102"/>
       <c r="N216" s="1"/>
     </row>
     <row r="217" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="6"/>
-      <c r="B217" s="60"/>
-      <c r="C217" s="60"/>
-      <c r="D217" s="60"/>
-      <c r="E217" s="60"/>
+      <c r="B217" s="59"/>
+      <c r="C217" s="59"/>
+      <c r="D217" s="59"/>
+      <c r="E217" s="102"/>
       <c r="N217" s="1"/>
     </row>
     <row r="218" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="6"/>
-      <c r="B218" s="60"/>
-      <c r="C218" s="60"/>
-      <c r="D218" s="60"/>
-      <c r="E218" s="60"/>
+      <c r="B218" s="59"/>
+      <c r="C218" s="59"/>
+      <c r="D218" s="59"/>
+      <c r="E218" s="102"/>
       <c r="N218" s="1"/>
     </row>
     <row r="219" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="6"/>
-      <c r="B219" s="60"/>
-      <c r="C219" s="60"/>
-      <c r="D219" s="60"/>
-      <c r="E219" s="60"/>
+      <c r="B219" s="59"/>
+      <c r="C219" s="59"/>
+      <c r="D219" s="59"/>
+      <c r="E219" s="102"/>
       <c r="N219" s="1"/>
     </row>
     <row r="220" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="6"/>
-      <c r="B220" s="60"/>
-      <c r="C220" s="60"/>
-      <c r="D220" s="60"/>
-      <c r="E220" s="60"/>
+      <c r="B220" s="59"/>
+      <c r="C220" s="59"/>
+      <c r="D220" s="59"/>
+      <c r="E220" s="102"/>
       <c r="N220" s="1"/>
     </row>
     <row r="221" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="6"/>
-      <c r="B221" s="60"/>
-      <c r="C221" s="60"/>
-      <c r="D221" s="60"/>
-      <c r="E221" s="60"/>
+      <c r="B221" s="59"/>
+      <c r="C221" s="59"/>
+      <c r="D221" s="59"/>
+      <c r="E221" s="102"/>
       <c r="N221" s="1"/>
     </row>
     <row r="222" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="6"/>
-      <c r="B222" s="60"/>
-      <c r="C222" s="60"/>
-      <c r="D222" s="60"/>
-      <c r="E222" s="60"/>
+      <c r="B222" s="59"/>
+      <c r="C222" s="59"/>
+      <c r="D222" s="59"/>
+      <c r="E222" s="102"/>
       <c r="N222" s="1"/>
     </row>
     <row r="223" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="6"/>
-      <c r="B223" s="60"/>
-      <c r="C223" s="60"/>
-      <c r="D223" s="60"/>
-      <c r="E223" s="60"/>
+      <c r="B223" s="59"/>
+      <c r="C223" s="59"/>
+      <c r="D223" s="59"/>
+      <c r="E223" s="102"/>
       <c r="N223" s="1"/>
     </row>
     <row r="224" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="6"/>
-      <c r="B224" s="60"/>
-      <c r="C224" s="60"/>
-      <c r="D224" s="60"/>
-      <c r="E224" s="60"/>
+      <c r="B224" s="59"/>
+      <c r="C224" s="59"/>
+      <c r="D224" s="59"/>
+      <c r="E224" s="102"/>
       <c r="N224" s="1"/>
     </row>
     <row r="225" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="6"/>
-      <c r="B225" s="60"/>
-      <c r="C225" s="60"/>
-      <c r="D225" s="60"/>
-      <c r="E225" s="60"/>
+      <c r="B225" s="59"/>
+      <c r="C225" s="59"/>
+      <c r="D225" s="59"/>
+      <c r="E225" s="102"/>
       <c r="N225" s="1"/>
     </row>
     <row r="226" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="6"/>
-      <c r="B226" s="60"/>
-      <c r="C226" s="60"/>
-      <c r="D226" s="60"/>
-      <c r="E226" s="60"/>
+      <c r="B226" s="59"/>
+      <c r="C226" s="59"/>
+      <c r="D226" s="59"/>
+      <c r="E226" s="102"/>
       <c r="N226" s="1"/>
     </row>
     <row r="227" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="6"/>
-      <c r="B227" s="60"/>
-      <c r="C227" s="60"/>
-      <c r="D227" s="60"/>
-      <c r="E227" s="60"/>
+      <c r="B227" s="59"/>
+      <c r="C227" s="59"/>
+      <c r="D227" s="59"/>
+      <c r="E227" s="102"/>
       <c r="N227" s="1"/>
     </row>
     <row r="228" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="6"/>
-      <c r="B228" s="60"/>
-      <c r="C228" s="60"/>
-      <c r="D228" s="60"/>
-      <c r="E228" s="60"/>
+      <c r="B228" s="59"/>
+      <c r="C228" s="59"/>
+      <c r="D228" s="59"/>
+      <c r="E228" s="102"/>
       <c r="N228" s="1"/>
     </row>
     <row r="229" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="6"/>
-      <c r="B229" s="60"/>
-      <c r="C229" s="60"/>
-      <c r="D229" s="60"/>
-      <c r="E229" s="60"/>
+      <c r="B229" s="59"/>
+      <c r="C229" s="59"/>
+      <c r="D229" s="59"/>
+      <c r="E229" s="102"/>
       <c r="N229" s="1"/>
     </row>
     <row r="230" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="6"/>
-      <c r="B230" s="60"/>
-      <c r="C230" s="60"/>
-      <c r="D230" s="60"/>
-      <c r="E230" s="60"/>
+      <c r="B230" s="59"/>
+      <c r="C230" s="59"/>
+      <c r="D230" s="59"/>
+      <c r="E230" s="102"/>
       <c r="N230" s="1"/>
     </row>
     <row r="231" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="6"/>
-      <c r="B231" s="60"/>
-      <c r="C231" s="60"/>
-      <c r="D231" s="60"/>
-      <c r="E231" s="60"/>
+      <c r="B231" s="59"/>
+      <c r="C231" s="59"/>
+      <c r="D231" s="59"/>
+      <c r="E231" s="102"/>
       <c r="N231" s="1"/>
     </row>
     <row r="232" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="6"/>
-      <c r="B232" s="60"/>
-      <c r="C232" s="60"/>
-      <c r="D232" s="60"/>
-      <c r="E232" s="60"/>
+      <c r="B232" s="59"/>
+      <c r="C232" s="59"/>
+      <c r="D232" s="59"/>
+      <c r="E232" s="102"/>
       <c r="N232" s="1"/>
     </row>
     <row r="233" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="6"/>
-      <c r="B233" s="60"/>
-      <c r="C233" s="60"/>
-      <c r="D233" s="60"/>
-      <c r="E233" s="60"/>
+      <c r="B233" s="59"/>
+      <c r="C233" s="59"/>
+      <c r="D233" s="59"/>
+      <c r="E233" s="102"/>
       <c r="N233" s="1"/>
     </row>
     <row r="234" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="6"/>
-      <c r="B234" s="60"/>
-      <c r="C234" s="60"/>
-      <c r="D234" s="60"/>
-      <c r="E234" s="60"/>
+      <c r="B234" s="59"/>
+      <c r="C234" s="59"/>
+      <c r="D234" s="59"/>
+      <c r="E234" s="102"/>
       <c r="N234" s="1"/>
     </row>
     <row r="235" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="6"/>
-      <c r="B235" s="60"/>
-      <c r="C235" s="60"/>
-      <c r="D235" s="60"/>
-      <c r="E235" s="60"/>
+      <c r="B235" s="59"/>
+      <c r="C235" s="59"/>
+      <c r="D235" s="59"/>
+      <c r="E235" s="102"/>
       <c r="N235" s="1"/>
     </row>
     <row r="236" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="6"/>
-      <c r="B236" s="60"/>
-      <c r="C236" s="60"/>
-      <c r="D236" s="60"/>
-      <c r="E236" s="60"/>
+      <c r="B236" s="59"/>
+      <c r="C236" s="59"/>
+      <c r="D236" s="59"/>
+      <c r="E236" s="102"/>
       <c r="N236" s="1"/>
     </row>
     <row r="237" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="6"/>
-      <c r="B237" s="60"/>
-      <c r="C237" s="60"/>
-      <c r="D237" s="60"/>
-      <c r="E237" s="60"/>
+      <c r="B237" s="59"/>
+      <c r="C237" s="59"/>
+      <c r="D237" s="59"/>
+      <c r="E237" s="102"/>
       <c r="N237" s="1"/>
     </row>
     <row r="238" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="6"/>
-      <c r="B238" s="60"/>
-      <c r="C238" s="60"/>
-      <c r="D238" s="60"/>
-      <c r="E238" s="60"/>
+      <c r="B238" s="59"/>
+      <c r="C238" s="59"/>
+      <c r="D238" s="59"/>
+      <c r="E238" s="102"/>
       <c r="N238" s="1"/>
     </row>
     <row r="239" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="6"/>
-      <c r="B239" s="60"/>
-      <c r="C239" s="60"/>
-      <c r="D239" s="60"/>
-      <c r="E239" s="60"/>
+      <c r="B239" s="59"/>
+      <c r="C239" s="59"/>
+      <c r="D239" s="59"/>
+      <c r="E239" s="102"/>
       <c r="N239" s="1"/>
     </row>
     <row r="240" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="6"/>
-      <c r="B240" s="60"/>
-      <c r="C240" s="60"/>
-      <c r="D240" s="60"/>
-      <c r="E240" s="60"/>
+      <c r="B240" s="59"/>
+      <c r="C240" s="59"/>
+      <c r="D240" s="59"/>
+      <c r="E240" s="102"/>
       <c r="N240" s="1"/>
     </row>
     <row r="241" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="6"/>
-      <c r="B241" s="60"/>
-      <c r="C241" s="60"/>
-      <c r="D241" s="60"/>
-      <c r="E241" s="60"/>
+      <c r="B241" s="59"/>
+      <c r="C241" s="59"/>
+      <c r="D241" s="59"/>
+      <c r="E241" s="102"/>
       <c r="N241" s="1"/>
     </row>
     <row r="242" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="6"/>
-      <c r="B242" s="60"/>
-      <c r="C242" s="60"/>
-      <c r="D242" s="60"/>
-      <c r="E242" s="60"/>
+      <c r="B242" s="59"/>
+      <c r="C242" s="59"/>
+      <c r="D242" s="59"/>
+      <c r="E242" s="102"/>
       <c r="N242" s="1"/>
     </row>
     <row r="243" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="6"/>
-      <c r="B243" s="60"/>
-      <c r="C243" s="60"/>
-      <c r="D243" s="60"/>
-      <c r="E243" s="60"/>
+      <c r="B243" s="59"/>
+      <c r="C243" s="59"/>
+      <c r="D243" s="59"/>
+      <c r="E243" s="102"/>
       <c r="N243" s="1"/>
     </row>
     <row r="244" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="6"/>
-      <c r="B244" s="60"/>
-      <c r="C244" s="60"/>
-      <c r="D244" s="60"/>
-      <c r="E244" s="60"/>
+      <c r="B244" s="59"/>
+      <c r="C244" s="59"/>
+      <c r="D244" s="59"/>
+      <c r="E244" s="102"/>
       <c r="N244" s="1"/>
     </row>
     <row r="245" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="6"/>
-      <c r="B245" s="60"/>
-      <c r="C245" s="60"/>
-      <c r="D245" s="60"/>
-      <c r="E245" s="60"/>
+      <c r="B245" s="59"/>
+      <c r="C245" s="59"/>
+      <c r="D245" s="59"/>
+      <c r="E245" s="102"/>
       <c r="N245" s="1"/>
     </row>
     <row r="246" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="6"/>
-      <c r="B246" s="60"/>
-      <c r="C246" s="60"/>
-      <c r="D246" s="60"/>
-      <c r="E246" s="60"/>
+      <c r="B246" s="59"/>
+      <c r="C246" s="59"/>
+      <c r="D246" s="59"/>
+      <c r="E246" s="102"/>
       <c r="N246" s="1"/>
     </row>
     <row r="247" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="6"/>
-      <c r="B247" s="60"/>
-      <c r="C247" s="60"/>
-      <c r="D247" s="60"/>
-      <c r="E247" s="60"/>
+      <c r="B247" s="59"/>
+      <c r="C247" s="59"/>
+      <c r="D247" s="59"/>
+      <c r="E247" s="102"/>
       <c r="N247" s="1"/>
     </row>
     <row r="248" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="6"/>
-      <c r="B248" s="60"/>
-      <c r="C248" s="60"/>
-      <c r="D248" s="60"/>
-      <c r="E248" s="60"/>
+      <c r="B248" s="59"/>
+      <c r="C248" s="59"/>
+      <c r="D248" s="59"/>
+      <c r="E248" s="102"/>
       <c r="N248" s="1"/>
     </row>
     <row r="249" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="6"/>
-      <c r="B249" s="60"/>
-      <c r="C249" s="60"/>
-      <c r="D249" s="60"/>
-      <c r="E249" s="60"/>
+      <c r="B249" s="59"/>
+      <c r="C249" s="59"/>
+      <c r="D249" s="59"/>
+      <c r="E249" s="102"/>
       <c r="N249" s="1"/>
     </row>
     <row r="250" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="6"/>
-      <c r="B250" s="60"/>
-      <c r="C250" s="60"/>
-      <c r="D250" s="60"/>
-      <c r="E250" s="60"/>
+      <c r="B250" s="59"/>
+      <c r="C250" s="59"/>
+      <c r="D250" s="59"/>
+      <c r="E250" s="102"/>
       <c r="N250" s="1"/>
     </row>
     <row r="251" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="6"/>
-      <c r="B251" s="60"/>
-      <c r="C251" s="60"/>
-      <c r="D251" s="60"/>
-      <c r="E251" s="60"/>
+      <c r="B251" s="59"/>
+      <c r="C251" s="59"/>
+      <c r="D251" s="59"/>
+      <c r="E251" s="102"/>
       <c r="N251" s="1"/>
     </row>
     <row r="252" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="6"/>
-      <c r="B252" s="60"/>
-      <c r="C252" s="60"/>
-      <c r="D252" s="60"/>
-      <c r="E252" s="60"/>
+      <c r="B252" s="59"/>
+      <c r="C252" s="59"/>
+      <c r="D252" s="59"/>
+      <c r="E252" s="102"/>
       <c r="N252" s="1"/>
     </row>
     <row r="253" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="6"/>
-      <c r="B253" s="60"/>
-      <c r="C253" s="60"/>
-      <c r="D253" s="60"/>
-      <c r="E253" s="60"/>
+      <c r="B253" s="59"/>
+      <c r="C253" s="59"/>
+      <c r="D253" s="59"/>
+      <c r="E253" s="102"/>
       <c r="N253" s="1"/>
     </row>
     <row r="254" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="6"/>
-      <c r="B254" s="60"/>
-      <c r="C254" s="60"/>
-      <c r="D254" s="60"/>
-      <c r="E254" s="60"/>
+      <c r="B254" s="59"/>
+      <c r="C254" s="59"/>
+      <c r="D254" s="59"/>
+      <c r="E254" s="102"/>
       <c r="N254" s="1"/>
     </row>
     <row r="255" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="6"/>
-      <c r="B255" s="60"/>
-      <c r="C255" s="60"/>
-      <c r="D255" s="60"/>
-      <c r="E255" s="60"/>
+      <c r="B255" s="59"/>
+      <c r="C255" s="59"/>
+      <c r="D255" s="59"/>
+      <c r="E255" s="102"/>
       <c r="N255" s="1"/>
     </row>
     <row r="256" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="6"/>
-      <c r="B256" s="60"/>
-      <c r="C256" s="60"/>
-      <c r="D256" s="60"/>
-      <c r="E256" s="60"/>
+      <c r="B256" s="59"/>
+      <c r="C256" s="59"/>
+      <c r="D256" s="59"/>
+      <c r="E256" s="102"/>
       <c r="N256" s="1"/>
     </row>
     <row r="257" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="6"/>
-      <c r="B257" s="60"/>
-      <c r="C257" s="60"/>
-      <c r="D257" s="60"/>
-      <c r="E257" s="60"/>
+      <c r="B257" s="59"/>
+      <c r="C257" s="59"/>
+      <c r="D257" s="59"/>
+      <c r="E257" s="102"/>
       <c r="N257" s="1"/>
     </row>
     <row r="258" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="6"/>
-      <c r="B258" s="60"/>
-      <c r="C258" s="60"/>
-      <c r="D258" s="60"/>
-      <c r="E258" s="60"/>
+      <c r="B258" s="59"/>
+      <c r="C258" s="59"/>
+      <c r="D258" s="59"/>
+      <c r="E258" s="102"/>
       <c r="N258" s="1"/>
     </row>
     <row r="259" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="6"/>
-      <c r="B259" s="60"/>
-      <c r="C259" s="60"/>
-      <c r="D259" s="60"/>
-      <c r="E259" s="60"/>
+      <c r="B259" s="59"/>
+      <c r="C259" s="59"/>
+      <c r="D259" s="59"/>
+      <c r="E259" s="102"/>
       <c r="N259" s="1"/>
     </row>
     <row r="260" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="6"/>
-      <c r="B260" s="60"/>
-      <c r="C260" s="60"/>
-      <c r="D260" s="60"/>
-      <c r="E260" s="60"/>
+      <c r="B260" s="59"/>
+      <c r="C260" s="59"/>
+      <c r="D260" s="59"/>
+      <c r="E260" s="102"/>
       <c r="N260" s="1"/>
     </row>
     <row r="261" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="6"/>
-      <c r="B261" s="60"/>
-      <c r="C261" s="60"/>
-      <c r="D261" s="60"/>
-      <c r="E261" s="60"/>
+      <c r="B261" s="59"/>
+      <c r="C261" s="59"/>
+      <c r="D261" s="59"/>
+      <c r="E261" s="102"/>
       <c r="N261" s="1"/>
     </row>
     <row r="262" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="6"/>
-      <c r="B262" s="60"/>
-      <c r="C262" s="60"/>
-      <c r="D262" s="60"/>
-      <c r="E262" s="60"/>
+      <c r="B262" s="59"/>
+      <c r="C262" s="59"/>
+      <c r="D262" s="59"/>
+      <c r="E262" s="102"/>
       <c r="N262" s="1"/>
     </row>
     <row r="263" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="6"/>
-      <c r="B263" s="60"/>
-      <c r="C263" s="60"/>
-      <c r="D263" s="60"/>
-      <c r="E263" s="60"/>
+      <c r="B263" s="59"/>
+      <c r="C263" s="59"/>
+      <c r="D263" s="59"/>
+      <c r="E263" s="102"/>
       <c r="N263" s="1"/>
     </row>
     <row r="264" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="6"/>
-      <c r="B264" s="60"/>
-      <c r="C264" s="60"/>
-      <c r="D264" s="60"/>
-      <c r="E264" s="60"/>
+      <c r="B264" s="59"/>
+      <c r="C264" s="59"/>
+      <c r="D264" s="59"/>
+      <c r="E264" s="102"/>
       <c r="N264" s="1"/>
     </row>
     <row r="265" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="6"/>
-      <c r="B265" s="60"/>
-      <c r="C265" s="60"/>
-      <c r="D265" s="60"/>
-      <c r="E265" s="60"/>
+      <c r="B265" s="59"/>
+      <c r="C265" s="59"/>
+      <c r="D265" s="59"/>
+      <c r="E265" s="102"/>
       <c r="N265" s="1"/>
     </row>
     <row r="266" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="6"/>
-      <c r="B266" s="60"/>
-      <c r="C266" s="60"/>
-      <c r="D266" s="60"/>
-      <c r="E266" s="60"/>
+      <c r="B266" s="59"/>
+      <c r="C266" s="59"/>
+      <c r="D266" s="59"/>
+      <c r="E266" s="102"/>
       <c r="N266" s="1"/>
     </row>
     <row r="267" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="6"/>
-      <c r="B267" s="60"/>
-      <c r="C267" s="60"/>
-      <c r="D267" s="60"/>
-      <c r="E267" s="60"/>
+      <c r="B267" s="59"/>
+      <c r="C267" s="59"/>
+      <c r="D267" s="59"/>
+      <c r="E267" s="102"/>
       <c r="N267" s="1"/>
     </row>
     <row r="268" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="6"/>
-      <c r="B268" s="60"/>
-      <c r="C268" s="60"/>
-      <c r="D268" s="60"/>
-      <c r="E268" s="60"/>
+      <c r="B268" s="59"/>
+      <c r="C268" s="59"/>
+      <c r="D268" s="59"/>
+      <c r="E268" s="102"/>
       <c r="N268" s="1"/>
     </row>
     <row r="269" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="6"/>
-      <c r="B269" s="60"/>
-      <c r="C269" s="60"/>
-      <c r="D269" s="60"/>
-      <c r="E269" s="60"/>
+      <c r="B269" s="59"/>
+      <c r="C269" s="59"/>
+      <c r="D269" s="59"/>
+      <c r="E269" s="102"/>
       <c r="N269" s="1"/>
     </row>
     <row r="270" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="6"/>
-      <c r="B270" s="60"/>
-      <c r="C270" s="60"/>
-      <c r="D270" s="60"/>
-      <c r="E270" s="60"/>
+      <c r="B270" s="59"/>
+      <c r="C270" s="59"/>
+      <c r="D270" s="59"/>
+      <c r="E270" s="102"/>
       <c r="N270" s="1"/>
     </row>
     <row r="271" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="6"/>
-      <c r="B271" s="60"/>
-      <c r="C271" s="60"/>
-      <c r="D271" s="60"/>
-      <c r="E271" s="60"/>
+      <c r="B271" s="59"/>
+      <c r="C271" s="59"/>
+      <c r="D271" s="59"/>
+      <c r="E271" s="102"/>
       <c r="N271" s="1"/>
     </row>
     <row r="272" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="6"/>
-      <c r="B272" s="60"/>
-      <c r="C272" s="60"/>
-      <c r="D272" s="60"/>
-      <c r="E272" s="60"/>
+      <c r="B272" s="59"/>
+      <c r="C272" s="59"/>
+      <c r="D272" s="59"/>
+      <c r="E272" s="102"/>
       <c r="N272" s="1"/>
     </row>
     <row r="273" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="6"/>
-      <c r="B273" s="60"/>
-      <c r="C273" s="60"/>
-      <c r="D273" s="60"/>
-      <c r="E273" s="60"/>
+      <c r="B273" s="59"/>
+      <c r="C273" s="59"/>
+      <c r="D273" s="59"/>
+      <c r="E273" s="102"/>
       <c r="N273" s="1"/>
     </row>
     <row r="274" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="6"/>
-      <c r="B274" s="60"/>
-      <c r="C274" s="60"/>
-      <c r="D274" s="60"/>
-      <c r="E274" s="60"/>
+      <c r="B274" s="59"/>
+      <c r="C274" s="59"/>
+      <c r="D274" s="59"/>
+      <c r="E274" s="102"/>
       <c r="N274" s="1"/>
     </row>
     <row r="275" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="6"/>
-      <c r="B275" s="60"/>
-      <c r="C275" s="60"/>
-      <c r="D275" s="60"/>
-      <c r="E275" s="60"/>
+      <c r="B275" s="59"/>
+      <c r="C275" s="59"/>
+      <c r="D275" s="59"/>
+      <c r="E275" s="102"/>
       <c r="N275" s="1"/>
     </row>
     <row r="276" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="6"/>
-      <c r="B276" s="60"/>
-      <c r="C276" s="60"/>
-      <c r="D276" s="60"/>
-      <c r="E276" s="60"/>
+      <c r="B276" s="59"/>
+      <c r="C276" s="59"/>
+      <c r="D276" s="59"/>
+      <c r="E276" s="102"/>
       <c r="N276" s="1"/>
     </row>
     <row r="277" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="6"/>
-      <c r="B277" s="60"/>
-      <c r="C277" s="60"/>
-      <c r="D277" s="60"/>
-      <c r="E277" s="60"/>
+      <c r="B277" s="59"/>
+      <c r="C277" s="59"/>
+      <c r="D277" s="59"/>
+      <c r="E277" s="102"/>
       <c r="N277" s="1"/>
     </row>
     <row r="278" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="6"/>
-      <c r="B278" s="60"/>
-      <c r="C278" s="60"/>
-      <c r="D278" s="60"/>
-      <c r="E278" s="60"/>
+      <c r="B278" s="59"/>
+      <c r="C278" s="59"/>
+      <c r="D278" s="59"/>
+      <c r="E278" s="102"/>
       <c r="N278" s="1"/>
     </row>
     <row r="279" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="6"/>
-      <c r="B279" s="60"/>
-      <c r="C279" s="60"/>
-      <c r="D279" s="60"/>
-      <c r="E279" s="60"/>
+      <c r="B279" s="59"/>
+      <c r="C279" s="59"/>
+      <c r="D279" s="59"/>
+      <c r="E279" s="102"/>
       <c r="N279" s="1"/>
     </row>
     <row r="280" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="6"/>
-      <c r="B280" s="60"/>
-      <c r="C280" s="60"/>
-      <c r="D280" s="60"/>
-      <c r="E280" s="60"/>
+      <c r="B280" s="59"/>
+      <c r="C280" s="59"/>
+      <c r="D280" s="59"/>
+      <c r="E280" s="102"/>
       <c r="N280" s="1"/>
     </row>
     <row r="281" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="6"/>
-      <c r="B281" s="60"/>
-      <c r="C281" s="60"/>
-      <c r="D281" s="60"/>
-      <c r="E281" s="60"/>
+      <c r="B281" s="59"/>
+      <c r="C281" s="59"/>
+      <c r="D281" s="59"/>
+      <c r="E281" s="102"/>
       <c r="N281" s="1"/>
     </row>
     <row r="282" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="6"/>
-      <c r="B282" s="60"/>
-      <c r="C282" s="60"/>
-      <c r="D282" s="60"/>
-      <c r="E282" s="60"/>
+      <c r="B282" s="59"/>
+      <c r="C282" s="59"/>
+      <c r="D282" s="59"/>
+      <c r="E282" s="102"/>
       <c r="N282" s="1"/>
     </row>
     <row r="283" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="6"/>
-      <c r="B283" s="60"/>
-      <c r="C283" s="60"/>
-      <c r="D283" s="60"/>
-      <c r="E283" s="60"/>
+      <c r="B283" s="59"/>
+      <c r="C283" s="59"/>
+      <c r="D283" s="59"/>
+      <c r="E283" s="102"/>
       <c r="N283" s="1"/>
     </row>
     <row r="284" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="6"/>
-      <c r="B284" s="60"/>
-      <c r="C284" s="60"/>
-      <c r="D284" s="60"/>
-      <c r="E284" s="60"/>
+      <c r="B284" s="59"/>
+      <c r="C284" s="59"/>
+      <c r="D284" s="59"/>
+      <c r="E284" s="102"/>
       <c r="N284" s="1"/>
     </row>
     <row r="285" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="6"/>
-      <c r="B285" s="60"/>
-      <c r="C285" s="60"/>
-      <c r="D285" s="60"/>
-      <c r="E285" s="60"/>
+      <c r="B285" s="59"/>
+      <c r="C285" s="59"/>
+      <c r="D285" s="59"/>
+      <c r="E285" s="102"/>
       <c r="N285" s="1"/>
     </row>
     <row r="286" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="6"/>
-      <c r="B286" s="60"/>
-      <c r="C286" s="60"/>
-      <c r="D286" s="60"/>
-      <c r="E286" s="60"/>
+      <c r="B286" s="59"/>
+      <c r="C286" s="59"/>
+      <c r="D286" s="59"/>
+      <c r="E286" s="102"/>
       <c r="N286" s="1"/>
     </row>
     <row r="287" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="6"/>
-      <c r="B287" s="60"/>
-      <c r="C287" s="60"/>
-      <c r="D287" s="60"/>
-      <c r="E287" s="60"/>
+      <c r="B287" s="59"/>
+      <c r="C287" s="59"/>
+      <c r="D287" s="59"/>
+      <c r="E287" s="102"/>
       <c r="N287" s="1"/>
     </row>
     <row r="288" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="6"/>
-      <c r="B288" s="60"/>
-      <c r="C288" s="60"/>
-      <c r="D288" s="60"/>
-      <c r="E288" s="60"/>
+      <c r="B288" s="59"/>
+      <c r="C288" s="59"/>
+      <c r="D288" s="59"/>
+      <c r="E288" s="102"/>
       <c r="N288" s="1"/>
     </row>
     <row r="289" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="6"/>
-      <c r="B289" s="60"/>
-      <c r="C289" s="60"/>
-      <c r="D289" s="60"/>
-      <c r="E289" s="60"/>
+      <c r="B289" s="59"/>
+      <c r="C289" s="59"/>
+      <c r="D289" s="59"/>
+      <c r="E289" s="102"/>
       <c r="N289" s="1"/>
     </row>
     <row r="290" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="6"/>
-      <c r="B290" s="60"/>
-      <c r="C290" s="60"/>
-      <c r="D290" s="60"/>
-      <c r="E290" s="60"/>
+      <c r="B290" s="59"/>
+      <c r="C290" s="59"/>
+      <c r="D290" s="59"/>
+      <c r="E290" s="102"/>
       <c r="N290" s="1"/>
     </row>
     <row r="291" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="6"/>
-      <c r="B291" s="60"/>
-      <c r="C291" s="60"/>
-      <c r="D291" s="60"/>
-      <c r="E291" s="60"/>
+      <c r="B291" s="59"/>
+      <c r="C291" s="59"/>
+      <c r="D291" s="59"/>
+      <c r="E291" s="102"/>
       <c r="N291" s="1"/>
     </row>
     <row r="292" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="6"/>
-      <c r="B292" s="60"/>
-      <c r="C292" s="60"/>
-      <c r="D292" s="60"/>
-      <c r="E292" s="60"/>
+      <c r="B292" s="59"/>
+      <c r="C292" s="59"/>
+      <c r="D292" s="59"/>
+      <c r="E292" s="102"/>
       <c r="N292" s="1"/>
     </row>
     <row r="293" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="6"/>
-      <c r="B293" s="60"/>
-      <c r="C293" s="60"/>
-      <c r="D293" s="60"/>
-      <c r="E293" s="60"/>
+      <c r="B293" s="59"/>
+      <c r="C293" s="59"/>
+      <c r="D293" s="59"/>
+      <c r="E293" s="102"/>
       <c r="N293" s="1"/>
     </row>
     <row r="294" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="6"/>
-      <c r="B294" s="60"/>
-      <c r="C294" s="60"/>
-      <c r="D294" s="60"/>
-      <c r="E294" s="60"/>
+      <c r="B294" s="59"/>
+      <c r="C294" s="59"/>
+      <c r="D294" s="59"/>
+      <c r="E294" s="102"/>
       <c r="N294" s="1"/>
     </row>
     <row r="295" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="6"/>
-      <c r="B295" s="60"/>
-      <c r="C295" s="60"/>
-      <c r="D295" s="60"/>
-      <c r="E295" s="60"/>
+      <c r="B295" s="59"/>
+      <c r="C295" s="59"/>
+      <c r="D295" s="59"/>
+      <c r="E295" s="102"/>
       <c r="N295" s="1"/>
     </row>
     <row r="296" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="6"/>
-      <c r="B296" s="60"/>
-      <c r="C296" s="60"/>
-      <c r="D296" s="60"/>
-      <c r="E296" s="60"/>
+      <c r="B296" s="59"/>
+      <c r="C296" s="59"/>
+      <c r="D296" s="59"/>
+      <c r="E296" s="102"/>
       <c r="N296" s="1"/>
     </row>
     <row r="297" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="6"/>
-      <c r="B297" s="60"/>
-      <c r="C297" s="60"/>
-      <c r="D297" s="60"/>
-      <c r="E297" s="60"/>
+      <c r="B297" s="59"/>
+      <c r="C297" s="59"/>
+      <c r="D297" s="59"/>
+      <c r="E297" s="102"/>
       <c r="N297" s="1"/>
     </row>
     <row r="298" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="6"/>
-      <c r="B298" s="60"/>
-      <c r="C298" s="60"/>
-      <c r="D298" s="60"/>
-      <c r="E298" s="60"/>
+      <c r="B298" s="59"/>
+      <c r="C298" s="59"/>
+      <c r="D298" s="59"/>
+      <c r="E298" s="102"/>
       <c r="N298" s="1"/>
     </row>
     <row r="299" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="6"/>
-      <c r="B299" s="60"/>
-      <c r="C299" s="60"/>
-      <c r="D299" s="60"/>
-      <c r="E299" s="60"/>
+      <c r="B299" s="59"/>
+      <c r="C299" s="59"/>
+      <c r="D299" s="59"/>
+      <c r="E299" s="102"/>
       <c r="N299" s="1"/>
     </row>
     <row r="300" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="6"/>
-      <c r="B300" s="60"/>
-      <c r="C300" s="60"/>
-      <c r="D300" s="60"/>
-      <c r="E300" s="60"/>
+      <c r="B300" s="59"/>
+      <c r="C300" s="59"/>
+      <c r="D300" s="59"/>
+      <c r="E300" s="102"/>
       <c r="N300" s="1"/>
     </row>
     <row r="301" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="6"/>
-      <c r="B301" s="60"/>
-      <c r="C301" s="60"/>
-      <c r="D301" s="60"/>
-      <c r="E301" s="60"/>
+      <c r="B301" s="59"/>
+      <c r="C301" s="59"/>
+      <c r="D301" s="59"/>
+      <c r="E301" s="102"/>
       <c r="N301" s="1"/>
     </row>
     <row r="302" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="6"/>
-      <c r="B302" s="60"/>
-      <c r="C302" s="60"/>
-      <c r="D302" s="60"/>
-      <c r="E302" s="60"/>
+      <c r="B302" s="59"/>
+      <c r="C302" s="59"/>
+      <c r="D302" s="59"/>
+      <c r="E302" s="102"/>
       <c r="N302" s="1"/>
     </row>
     <row r="303" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="6"/>
-      <c r="B303" s="60"/>
-      <c r="C303" s="60"/>
-      <c r="D303" s="60"/>
-      <c r="E303" s="60"/>
+      <c r="B303" s="59"/>
+      <c r="C303" s="59"/>
+      <c r="D303" s="59"/>
+      <c r="E303" s="102"/>
       <c r="N303" s="1"/>
     </row>
     <row r="304" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="6"/>
-      <c r="B304" s="60"/>
-      <c r="C304" s="60"/>
-      <c r="D304" s="60"/>
-      <c r="E304" s="60"/>
+      <c r="B304" s="59"/>
+      <c r="C304" s="59"/>
+      <c r="D304" s="59"/>
+      <c r="E304" s="102"/>
       <c r="N304" s="1"/>
     </row>
     <row r="305" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="6"/>
-      <c r="B305" s="60"/>
-      <c r="C305" s="60"/>
-      <c r="D305" s="60"/>
-      <c r="E305" s="60"/>
+      <c r="B305" s="59"/>
+      <c r="C305" s="59"/>
+      <c r="D305" s="59"/>
+      <c r="E305" s="102"/>
       <c r="N305" s="1"/>
     </row>
     <row r="306" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="6"/>
-      <c r="B306" s="60"/>
-      <c r="C306" s="60"/>
-      <c r="D306" s="60"/>
-      <c r="E306" s="60"/>
+      <c r="B306" s="59"/>
+      <c r="C306" s="59"/>
+      <c r="D306" s="59"/>
+      <c r="E306" s="102"/>
       <c r="N306" s="1"/>
     </row>
     <row r="307" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="6"/>
-      <c r="B307" s="60"/>
-      <c r="C307" s="60"/>
-      <c r="D307" s="60"/>
-      <c r="E307" s="60"/>
+      <c r="B307" s="59"/>
+      <c r="C307" s="59"/>
+      <c r="D307" s="59"/>
+      <c r="E307" s="102"/>
       <c r="N307" s="1"/>
     </row>
     <row r="308" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="6"/>
-      <c r="B308" s="60"/>
-      <c r="C308" s="60"/>
-      <c r="D308" s="60"/>
-      <c r="E308" s="60"/>
+      <c r="B308" s="59"/>
+      <c r="C308" s="59"/>
+      <c r="D308" s="59"/>
+      <c r="E308" s="102"/>
       <c r="N308" s="1"/>
     </row>
     <row r="309" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="6"/>
-      <c r="B309" s="60"/>
-      <c r="C309" s="60"/>
-      <c r="D309" s="60"/>
-      <c r="E309" s="60"/>
+      <c r="B309" s="59"/>
+      <c r="C309" s="59"/>
+      <c r="D309" s="59"/>
+      <c r="E309" s="102"/>
       <c r="N309" s="1"/>
     </row>
     <row r="310" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="6"/>
-      <c r="B310" s="60"/>
-      <c r="C310" s="60"/>
-      <c r="D310" s="60"/>
-      <c r="E310" s="60"/>
+      <c r="B310" s="59"/>
+      <c r="C310" s="59"/>
+      <c r="D310" s="59"/>
+      <c r="E310" s="102"/>
       <c r="N310" s="1"/>
     </row>
     <row r="311" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="6"/>
-      <c r="B311" s="60"/>
-      <c r="C311" s="60"/>
-      <c r="D311" s="60"/>
-      <c r="E311" s="60"/>
+      <c r="B311" s="59"/>
+      <c r="C311" s="59"/>
+      <c r="D311" s="59"/>
+      <c r="E311" s="102"/>
       <c r="N311" s="1"/>
     </row>
     <row r="312" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="6"/>
-      <c r="B312" s="60"/>
-      <c r="C312" s="60"/>
-      <c r="D312" s="60"/>
-      <c r="E312" s="60"/>
+      <c r="B312" s="59"/>
+      <c r="C312" s="59"/>
+      <c r="D312" s="59"/>
+      <c r="E312" s="102"/>
       <c r="N312" s="1"/>
     </row>
     <row r="313" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="6"/>
-      <c r="B313" s="60"/>
-      <c r="C313" s="60"/>
-      <c r="D313" s="60"/>
-      <c r="E313" s="60"/>
+      <c r="B313" s="59"/>
+      <c r="C313" s="59"/>
+      <c r="D313" s="59"/>
+      <c r="E313" s="102"/>
       <c r="N313" s="1"/>
     </row>
     <row r="314" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="6"/>
-      <c r="B314" s="60"/>
-      <c r="C314" s="60"/>
-      <c r="D314" s="60"/>
-      <c r="E314" s="60"/>
+      <c r="B314" s="59"/>
+      <c r="C314" s="59"/>
+      <c r="D314" s="59"/>
+      <c r="E314" s="102"/>
       <c r="N314" s="1"/>
     </row>
     <row r="315" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="6"/>
-      <c r="B315" s="60"/>
-      <c r="C315" s="60"/>
-      <c r="D315" s="60"/>
-      <c r="E315" s="60"/>
+      <c r="B315" s="59"/>
+      <c r="C315" s="59"/>
+      <c r="D315" s="59"/>
+      <c r="E315" s="102"/>
       <c r="N315" s="1"/>
     </row>
     <row r="316" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="6"/>
-      <c r="B316" s="60"/>
-      <c r="C316" s="60"/>
-      <c r="D316" s="60"/>
-      <c r="E316" s="60"/>
+      <c r="B316" s="59"/>
+      <c r="C316" s="59"/>
+      <c r="D316" s="59"/>
+      <c r="E316" s="102"/>
       <c r="N316" s="1"/>
     </row>
     <row r="317" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="6"/>
-      <c r="B317" s="60"/>
-      <c r="C317" s="60"/>
-      <c r="D317" s="60"/>
-      <c r="E317" s="60"/>
+      <c r="B317" s="59"/>
+      <c r="C317" s="59"/>
+      <c r="D317" s="59"/>
+      <c r="E317" s="102"/>
       <c r="N317" s="1"/>
     </row>
     <row r="318" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="6"/>
-      <c r="B318" s="60"/>
-      <c r="C318" s="60"/>
-      <c r="D318" s="60"/>
-      <c r="E318" s="60"/>
+      <c r="B318" s="59"/>
+      <c r="C318" s="59"/>
+      <c r="D318" s="59"/>
+      <c r="E318" s="102"/>
       <c r="N318" s="1"/>
     </row>
     <row r="319" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="6"/>
-      <c r="B319" s="60"/>
-      <c r="C319" s="60"/>
-      <c r="D319" s="60"/>
-      <c r="E319" s="60"/>
+      <c r="B319" s="59"/>
+      <c r="C319" s="59"/>
+      <c r="D319" s="59"/>
+      <c r="E319" s="102"/>
       <c r="N319" s="1"/>
     </row>
     <row r="320" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="6"/>
-      <c r="B320" s="60"/>
-      <c r="C320" s="60"/>
-      <c r="D320" s="60"/>
-      <c r="E320" s="60"/>
+      <c r="B320" s="59"/>
+      <c r="C320" s="59"/>
+      <c r="D320" s="59"/>
+      <c r="E320" s="102"/>
       <c r="N320" s="1"/>
     </row>
     <row r="321" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="6"/>
-      <c r="B321" s="60"/>
-      <c r="C321" s="60"/>
-      <c r="D321" s="60"/>
-      <c r="E321" s="60"/>
+      <c r="B321" s="59"/>
+      <c r="C321" s="59"/>
+      <c r="D321" s="59"/>
+      <c r="E321" s="102"/>
       <c r="N321" s="1"/>
     </row>
     <row r="322" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="6"/>
-      <c r="B322" s="60"/>
-      <c r="C322" s="60"/>
-      <c r="D322" s="60"/>
-      <c r="E322" s="60"/>
+      <c r="B322" s="59"/>
+      <c r="C322" s="59"/>
+      <c r="D322" s="59"/>
+      <c r="E322" s="102"/>
       <c r="N322" s="1"/>
     </row>
     <row r="323" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="6"/>
-      <c r="B323" s="60"/>
-      <c r="C323" s="60"/>
-      <c r="D323" s="60"/>
-      <c r="E323" s="60"/>
+      <c r="B323" s="59"/>
+      <c r="C323" s="59"/>
+      <c r="D323" s="59"/>
+      <c r="E323" s="102"/>
       <c r="N323" s="1"/>
     </row>
     <row r="324" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="6"/>
-      <c r="B324" s="60"/>
-      <c r="C324" s="60"/>
-      <c r="D324" s="60"/>
-      <c r="E324" s="60"/>
+      <c r="B324" s="59"/>
+      <c r="C324" s="59"/>
+      <c r="D324" s="59"/>
+      <c r="E324" s="102"/>
       <c r="N324" s="1"/>
     </row>
     <row r="325" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="6"/>
-      <c r="B325" s="60"/>
-      <c r="C325" s="60"/>
-      <c r="D325" s="60"/>
-      <c r="E325" s="60"/>
+      <c r="B325" s="59"/>
+      <c r="C325" s="59"/>
+      <c r="D325" s="59"/>
+      <c r="E325" s="102"/>
       <c r="N325" s="1"/>
     </row>
     <row r="326" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="6"/>
-      <c r="B326" s="60"/>
-      <c r="C326" s="60"/>
-      <c r="D326" s="60"/>
-      <c r="E326" s="60"/>
+      <c r="B326" s="59"/>
+      <c r="C326" s="59"/>
+      <c r="D326" s="59"/>
+      <c r="E326" s="102"/>
       <c r="N326" s="1"/>
     </row>
     <row r="327" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="6"/>
-      <c r="B327" s="60"/>
-      <c r="C327" s="60"/>
-      <c r="D327" s="60"/>
-      <c r="E327" s="60"/>
+      <c r="B327" s="59"/>
+      <c r="C327" s="59"/>
+      <c r="D327" s="59"/>
+      <c r="E327" s="102"/>
       <c r="N327" s="1"/>
     </row>
     <row r="328" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="6"/>
-      <c r="B328" s="60"/>
-      <c r="C328" s="60"/>
-      <c r="D328" s="60"/>
-      <c r="E328" s="60"/>
+      <c r="B328" s="59"/>
+      <c r="C328" s="59"/>
+      <c r="D328" s="59"/>
+      <c r="E328" s="102"/>
       <c r="N328" s="1"/>
     </row>
     <row r="329" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="6"/>
-      <c r="B329" s="60"/>
-      <c r="C329" s="60"/>
-      <c r="D329" s="60"/>
-      <c r="E329" s="60"/>
+      <c r="B329" s="59"/>
+      <c r="C329" s="59"/>
+      <c r="D329" s="59"/>
+      <c r="E329" s="102"/>
       <c r="N329" s="1"/>
     </row>
     <row r="330" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="6"/>
-      <c r="B330" s="60"/>
-      <c r="C330" s="60"/>
-      <c r="D330" s="60"/>
-      <c r="E330" s="60"/>
+      <c r="B330" s="59"/>
+      <c r="C330" s="59"/>
+      <c r="D330" s="59"/>
+      <c r="E330" s="102"/>
       <c r="N330" s="1"/>
     </row>
     <row r="331" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="6"/>
-      <c r="B331" s="60"/>
-      <c r="C331" s="60"/>
-      <c r="D331" s="60"/>
-      <c r="E331" s="60"/>
+      <c r="B331" s="59"/>
+      <c r="C331" s="59"/>
+      <c r="D331" s="59"/>
+      <c r="E331" s="102"/>
       <c r="N331" s="1"/>
     </row>
     <row r="332" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="6"/>
-      <c r="B332" s="60"/>
-      <c r="C332" s="60"/>
-      <c r="D332" s="60"/>
-      <c r="E332" s="60"/>
+      <c r="B332" s="59"/>
+      <c r="C332" s="59"/>
+      <c r="D332" s="59"/>
+      <c r="E332" s="102"/>
       <c r="N332" s="1"/>
     </row>
     <row r="333" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="6"/>
-      <c r="B333" s="60"/>
-      <c r="C333" s="60"/>
-      <c r="D333" s="60"/>
-      <c r="E333" s="60"/>
+      <c r="B333" s="59"/>
+      <c r="C333" s="59"/>
+      <c r="D333" s="59"/>
+      <c r="E333" s="102"/>
       <c r="N333" s="1"/>
     </row>
     <row r="334" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="6"/>
-      <c r="B334" s="60"/>
-      <c r="C334" s="60"/>
-      <c r="D334" s="60"/>
-      <c r="E334" s="60"/>
+      <c r="B334" s="59"/>
+      <c r="C334" s="59"/>
+      <c r="D334" s="59"/>
+      <c r="E334" s="102"/>
       <c r="N334" s="1"/>
     </row>
     <row r="335" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="6"/>
-      <c r="B335" s="60"/>
-      <c r="C335" s="60"/>
-      <c r="D335" s="60"/>
-      <c r="E335" s="60"/>
+      <c r="B335" s="59"/>
+      <c r="C335" s="59"/>
+      <c r="D335" s="59"/>
+      <c r="E335" s="102"/>
       <c r="N335" s="1"/>
     </row>
     <row r="336" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="6"/>
-      <c r="B336" s="60"/>
-      <c r="C336" s="60"/>
-      <c r="D336" s="60"/>
-      <c r="E336" s="60"/>
+      <c r="B336" s="59"/>
+      <c r="C336" s="59"/>
+      <c r="D336" s="59"/>
+      <c r="E336" s="102"/>
       <c r="N336" s="1"/>
     </row>
     <row r="337" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="6"/>
-      <c r="B337" s="60"/>
-      <c r="C337" s="60"/>
-      <c r="D337" s="60"/>
-      <c r="E337" s="60"/>
+      <c r="B337" s="59"/>
+      <c r="C337" s="59"/>
+      <c r="D337" s="59"/>
+      <c r="E337" s="102"/>
       <c r="N337" s="1"/>
     </row>
     <row r="338" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="6"/>
-      <c r="B338" s="60"/>
-      <c r="C338" s="60"/>
-      <c r="D338" s="60"/>
-      <c r="E338" s="60"/>
+      <c r="B338" s="59"/>
+      <c r="C338" s="59"/>
+      <c r="D338" s="59"/>
+      <c r="E338" s="102"/>
       <c r="N338" s="1"/>
     </row>
     <row r="339" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="6"/>
-      <c r="B339" s="60"/>
-      <c r="C339" s="60"/>
-      <c r="D339" s="60"/>
-      <c r="E339" s="60"/>
+      <c r="B339" s="59"/>
+      <c r="C339" s="59"/>
+      <c r="D339" s="59"/>
+      <c r="E339" s="102"/>
       <c r="N339" s="1"/>
     </row>
     <row r="340" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="6"/>
-      <c r="B340" s="60"/>
-      <c r="C340" s="60"/>
-      <c r="D340" s="60"/>
-      <c r="E340" s="60"/>
+      <c r="B340" s="59"/>
+      <c r="C340" s="59"/>
+      <c r="D340" s="59"/>
+      <c r="E340" s="102"/>
       <c r="N340" s="1"/>
     </row>
     <row r="341" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="6"/>
-      <c r="B341" s="60"/>
-      <c r="C341" s="60"/>
-      <c r="D341" s="60"/>
-      <c r="E341" s="60"/>
+      <c r="B341" s="59"/>
+      <c r="C341" s="59"/>
+      <c r="D341" s="59"/>
+      <c r="E341" s="102"/>
       <c r="N341" s="1"/>
     </row>
     <row r="342" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="6"/>
-      <c r="B342" s="60"/>
-      <c r="C342" s="60"/>
-      <c r="D342" s="60"/>
-      <c r="E342" s="60"/>
+      <c r="B342" s="59"/>
+      <c r="C342" s="59"/>
+      <c r="D342" s="59"/>
+      <c r="E342" s="102"/>
       <c r="N342" s="1"/>
     </row>
     <row r="343" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="6"/>
-      <c r="B343" s="60"/>
-      <c r="C343" s="60"/>
-      <c r="D343" s="60"/>
-      <c r="E343" s="60"/>
+      <c r="B343" s="59"/>
+      <c r="C343" s="59"/>
+      <c r="D343" s="59"/>
+      <c r="E343" s="102"/>
       <c r="N343" s="1"/>
     </row>
     <row r="344" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="6"/>
-      <c r="B344" s="60"/>
-      <c r="C344" s="60"/>
-      <c r="D344" s="60"/>
-      <c r="E344" s="60"/>
+      <c r="B344" s="59"/>
+      <c r="C344" s="59"/>
+      <c r="D344" s="59"/>
+      <c r="E344" s="102"/>
       <c r="N344" s="1"/>
     </row>
     <row r="345" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="6"/>
-      <c r="B345" s="60"/>
-      <c r="C345" s="60"/>
-      <c r="D345" s="60"/>
-      <c r="E345" s="60"/>
+      <c r="B345" s="59"/>
+      <c r="C345" s="59"/>
+      <c r="D345" s="59"/>
+      <c r="E345" s="102"/>
       <c r="N345" s="1"/>
     </row>
     <row r="346" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="6"/>
-      <c r="B346" s="60"/>
-      <c r="C346" s="60"/>
-      <c r="D346" s="60"/>
-      <c r="E346" s="60"/>
+      <c r="B346" s="59"/>
+      <c r="C346" s="59"/>
+      <c r="D346" s="59"/>
+      <c r="E346" s="102"/>
       <c r="N346" s="1"/>
     </row>
     <row r="347" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="6"/>
-      <c r="B347" s="60"/>
-      <c r="C347" s="60"/>
-      <c r="D347" s="60"/>
-      <c r="E347" s="60"/>
+      <c r="B347" s="59"/>
+      <c r="C347" s="59"/>
+      <c r="D347" s="59"/>
+      <c r="E347" s="102"/>
       <c r="N347" s="1"/>
     </row>
     <row r="348" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="6"/>
-      <c r="B348" s="60"/>
-      <c r="C348" s="60"/>
-      <c r="D348" s="60"/>
-      <c r="E348" s="60"/>
+      <c r="B348" s="59"/>
+      <c r="C348" s="59"/>
+      <c r="D348" s="59"/>
+      <c r="E348" s="102"/>
       <c r="N348" s="1"/>
     </row>
     <row r="349" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="6"/>
-      <c r="B349" s="60"/>
-      <c r="C349" s="60"/>
-      <c r="D349" s="60"/>
-      <c r="E349" s="60"/>
+      <c r="B349" s="59"/>
+      <c r="C349" s="59"/>
+      <c r="D349" s="59"/>
+      <c r="E349" s="102"/>
       <c r="N349" s="1"/>
     </row>
     <row r="350" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="6"/>
-      <c r="B350" s="60"/>
-      <c r="C350" s="60"/>
-      <c r="D350" s="60"/>
-      <c r="E350" s="60"/>
+      <c r="B350" s="59"/>
+      <c r="C350" s="59"/>
+      <c r="D350" s="59"/>
+      <c r="E350" s="102"/>
       <c r="N350" s="1"/>
     </row>
     <row r="351" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="6"/>
-      <c r="B351" s="60"/>
-      <c r="C351" s="60"/>
-      <c r="D351" s="60"/>
-      <c r="E351" s="60"/>
+      <c r="B351" s="59"/>
+      <c r="C351" s="59"/>
+      <c r="D351" s="59"/>
+      <c r="E351" s="102"/>
       <c r="N351" s="1"/>
     </row>
     <row r="352" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="6"/>
-      <c r="B352" s="60"/>
-      <c r="C352" s="60"/>
-      <c r="D352" s="60"/>
-      <c r="E352" s="60"/>
+      <c r="B352" s="59"/>
+      <c r="C352" s="59"/>
+      <c r="D352" s="59"/>
+      <c r="E352" s="102"/>
       <c r="N352" s="1"/>
     </row>
     <row r="353" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="6"/>
-      <c r="B353" s="60"/>
-      <c r="C353" s="60"/>
-      <c r="D353" s="60"/>
-      <c r="E353" s="60"/>
+      <c r="B353" s="59"/>
+      <c r="C353" s="59"/>
+      <c r="D353" s="59"/>
+      <c r="E353" s="102"/>
       <c r="N353" s="1"/>
     </row>
     <row r="354" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="6"/>
-      <c r="B354" s="60"/>
-      <c r="C354" s="60"/>
-      <c r="D354" s="60"/>
-      <c r="E354" s="60"/>
+      <c r="B354" s="59"/>
+      <c r="C354" s="59"/>
+      <c r="D354" s="59"/>
+      <c r="E354" s="102"/>
       <c r="N354" s="1"/>
     </row>
     <row r="355" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="6"/>
-      <c r="B355" s="60"/>
-      <c r="C355" s="60"/>
-      <c r="D355" s="60"/>
-      <c r="E355" s="60"/>
+      <c r="B355" s="59"/>
+      <c r="C355" s="59"/>
+      <c r="D355" s="59"/>
+      <c r="E355" s="102"/>
       <c r="N355" s="1"/>
     </row>
     <row r="356" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="6"/>
-      <c r="B356" s="60"/>
-      <c r="C356" s="60"/>
-      <c r="D356" s="60"/>
-      <c r="E356" s="60"/>
+      <c r="B356" s="59"/>
+      <c r="C356" s="59"/>
+      <c r="D356" s="59"/>
+      <c r="E356" s="102"/>
       <c r="N356" s="1"/>
     </row>
     <row r="357" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="6"/>
-      <c r="B357" s="60"/>
-      <c r="C357" s="60"/>
-      <c r="D357" s="60"/>
-      <c r="E357" s="60"/>
+      <c r="B357" s="59"/>
+      <c r="C357" s="59"/>
+      <c r="D357" s="59"/>
+      <c r="E357" s="102"/>
       <c r="N357" s="1"/>
     </row>
     <row r="358" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="6"/>
-      <c r="B358" s="60"/>
-      <c r="C358" s="60"/>
-      <c r="D358" s="60"/>
-      <c r="E358" s="60"/>
+      <c r="B358" s="59"/>
+      <c r="C358" s="59"/>
+      <c r="D358" s="59"/>
+      <c r="E358" s="102"/>
       <c r="N358" s="1"/>
     </row>
     <row r="359" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="6"/>
-      <c r="B359" s="60"/>
-      <c r="C359" s="60"/>
-      <c r="D359" s="60"/>
-      <c r="E359" s="60"/>
+      <c r="B359" s="59"/>
+      <c r="C359" s="59"/>
+      <c r="D359" s="59"/>
+      <c r="E359" s="102"/>
       <c r="N359" s="1"/>
     </row>
     <row r="360" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="6"/>
-      <c r="B360" s="60"/>
-      <c r="C360" s="60"/>
-      <c r="D360" s="60"/>
-      <c r="E360" s="60"/>
+      <c r="B360" s="59"/>
+      <c r="C360" s="59"/>
+      <c r="D360" s="59"/>
+      <c r="E360" s="102"/>
       <c r="N360" s="1"/>
     </row>
     <row r="361" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="6"/>
-      <c r="B361" s="60"/>
-      <c r="C361" s="60"/>
-      <c r="D361" s="60"/>
-      <c r="E361" s="60"/>
+      <c r="B361" s="59"/>
+      <c r="C361" s="59"/>
+      <c r="D361" s="59"/>
+      <c r="E361" s="102"/>
       <c r="N361" s="1"/>
     </row>
     <row r="362" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="6"/>
-      <c r="B362" s="60"/>
-      <c r="C362" s="60"/>
-      <c r="D362" s="60"/>
-      <c r="E362" s="60"/>
+      <c r="B362" s="59"/>
+      <c r="C362" s="59"/>
+      <c r="D362" s="59"/>
+      <c r="E362" s="102"/>
       <c r="N362" s="1"/>
     </row>
     <row r="363" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="6"/>
-      <c r="B363" s="60"/>
-      <c r="C363" s="60"/>
-      <c r="D363" s="60"/>
-      <c r="E363" s="60"/>
+      <c r="B363" s="59"/>
+      <c r="C363" s="59"/>
+      <c r="D363" s="59"/>
+      <c r="E363" s="102"/>
       <c r="N363" s="1"/>
     </row>
     <row r="364" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="6"/>
-      <c r="B364" s="60"/>
-      <c r="C364" s="60"/>
-      <c r="D364" s="60"/>
-      <c r="E364" s="60"/>
+      <c r="B364" s="59"/>
+      <c r="C364" s="59"/>
+      <c r="D364" s="59"/>
+      <c r="E364" s="102"/>
       <c r="N364" s="1"/>
     </row>
     <row r="365" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="6"/>
-      <c r="B365" s="60"/>
-      <c r="C365" s="60"/>
-      <c r="D365" s="60"/>
-      <c r="E365" s="60"/>
+      <c r="B365" s="59"/>
+      <c r="C365" s="59"/>
+      <c r="D365" s="59"/>
+      <c r="E365" s="102"/>
       <c r="N365" s="1"/>
     </row>
     <row r="366" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="6"/>
-      <c r="B366" s="60"/>
-      <c r="C366" s="60"/>
-      <c r="D366" s="60"/>
-      <c r="E366" s="60"/>
+      <c r="B366" s="59"/>
+      <c r="C366" s="59"/>
+      <c r="D366" s="59"/>
+      <c r="E366" s="102"/>
       <c r="N366" s="1"/>
     </row>
     <row r="367" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="6"/>
-      <c r="B367" s="60"/>
-      <c r="C367" s="60"/>
-      <c r="D367" s="60"/>
-      <c r="E367" s="60"/>
+      <c r="B367" s="59"/>
+      <c r="C367" s="59"/>
+      <c r="D367" s="59"/>
+      <c r="E367" s="102"/>
       <c r="N367" s="1"/>
     </row>
     <row r="368" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="6"/>
-      <c r="B368" s="60"/>
-      <c r="C368" s="60"/>
-      <c r="D368" s="60"/>
-      <c r="E368" s="60"/>
+      <c r="B368" s="59"/>
+      <c r="C368" s="59"/>
+      <c r="D368" s="59"/>
+      <c r="E368" s="102"/>
       <c r="N368" s="1"/>
     </row>
     <row r="369" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="6"/>
-      <c r="B369" s="60"/>
-      <c r="C369" s="60"/>
-      <c r="D369" s="60"/>
-      <c r="E369" s="60"/>
+      <c r="B369" s="59"/>
+      <c r="C369" s="59"/>
+      <c r="D369" s="59"/>
+      <c r="E369" s="102"/>
       <c r="N369" s="1"/>
     </row>
     <row r="370" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="6"/>
-      <c r="B370" s="60"/>
-      <c r="C370" s="60"/>
-      <c r="D370" s="60"/>
-      <c r="E370" s="60"/>
+      <c r="B370" s="59"/>
+      <c r="C370" s="59"/>
+      <c r="D370" s="59"/>
+      <c r="E370" s="102"/>
       <c r="N370" s="1"/>
     </row>
     <row r="371" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="6"/>
-      <c r="B371" s="60"/>
-      <c r="C371" s="60"/>
-      <c r="D371" s="60"/>
-      <c r="E371" s="60"/>
+      <c r="B371" s="59"/>
+      <c r="C371" s="59"/>
+      <c r="D371" s="59"/>
+      <c r="E371" s="102"/>
       <c r="N371" s="1"/>
     </row>
     <row r="372" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="6"/>
-      <c r="B372" s="60"/>
-      <c r="C372" s="60"/>
-      <c r="D372" s="60"/>
-      <c r="E372" s="60"/>
+      <c r="B372" s="59"/>
+      <c r="C372" s="59"/>
+      <c r="D372" s="59"/>
+      <c r="E372" s="102"/>
       <c r="N372" s="1"/>
     </row>
     <row r="373" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="6"/>
-      <c r="B373" s="60"/>
-      <c r="C373" s="60"/>
-      <c r="D373" s="60"/>
-      <c r="E373" s="60"/>
+      <c r="B373" s="59"/>
+      <c r="C373" s="59"/>
+      <c r="D373" s="59"/>
+      <c r="E373" s="102"/>
       <c r="N373" s="1"/>
     </row>
     <row r="374" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="6"/>
-      <c r="B374" s="60"/>
-      <c r="C374" s="60"/>
-      <c r="D374" s="60"/>
-      <c r="E374" s="60"/>
+      <c r="B374" s="59"/>
+      <c r="C374" s="59"/>
+      <c r="D374" s="59"/>
+      <c r="E374" s="102"/>
       <c r="N374" s="1"/>
     </row>
     <row r="375" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="6"/>
-      <c r="B375" s="60"/>
-      <c r="C375" s="60"/>
-      <c r="D375" s="60"/>
-      <c r="E375" s="60"/>
+      <c r="B375" s="59"/>
+      <c r="C375" s="59"/>
+      <c r="D375" s="59"/>
+      <c r="E375" s="102"/>
       <c r="N375" s="1"/>
     </row>
     <row r="376" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="6"/>
-      <c r="B376" s="60"/>
-      <c r="C376" s="60"/>
-      <c r="D376" s="60"/>
-      <c r="E376" s="60"/>
+      <c r="B376" s="59"/>
+      <c r="C376" s="59"/>
+      <c r="D376" s="59"/>
+      <c r="E376" s="102"/>
       <c r="N376" s="1"/>
     </row>
     <row r="377" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="6"/>
-      <c r="B377" s="60"/>
-      <c r="C377" s="60"/>
-      <c r="D377" s="60"/>
-      <c r="E377" s="60"/>
+      <c r="B377" s="59"/>
+      <c r="C377" s="59"/>
+      <c r="D377" s="59"/>
+      <c r="E377" s="102"/>
       <c r="N377" s="1"/>
     </row>
     <row r="378" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="6"/>
-      <c r="B378" s="60"/>
-      <c r="C378" s="60"/>
-      <c r="D378" s="60"/>
-      <c r="E378" s="60"/>
+      <c r="B378" s="59"/>
+      <c r="C378" s="59"/>
+      <c r="D378" s="59"/>
+      <c r="E378" s="102"/>
       <c r="N378" s="1"/>
     </row>
     <row r="379" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="6"/>
-      <c r="B379" s="60"/>
-      <c r="C379" s="60"/>
-      <c r="D379" s="60"/>
-      <c r="E379" s="60"/>
+      <c r="B379" s="59"/>
+      <c r="C379" s="59"/>
+      <c r="D379" s="59"/>
+      <c r="E379" s="102"/>
       <c r="N379" s="1"/>
     </row>
     <row r="380" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="6"/>
-      <c r="B380" s="60"/>
-      <c r="C380" s="60"/>
-      <c r="D380" s="60"/>
-      <c r="E380" s="60"/>
+      <c r="B380" s="59"/>
+      <c r="C380" s="59"/>
+      <c r="D380" s="59"/>
+      <c r="E380" s="102"/>
       <c r="N380" s="1"/>
     </row>
     <row r="381" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="6"/>
-      <c r="B381" s="60"/>
-      <c r="C381" s="60"/>
-      <c r="D381" s="60"/>
-      <c r="E381" s="60"/>
+      <c r="B381" s="59"/>
+      <c r="C381" s="59"/>
+      <c r="D381" s="59"/>
+      <c r="E381" s="102"/>
       <c r="N381" s="1"/>
     </row>
     <row r="382" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="6"/>
-      <c r="B382" s="60"/>
-      <c r="C382" s="60"/>
-      <c r="D382" s="60"/>
-      <c r="E382" s="60"/>
+      <c r="B382" s="59"/>
+      <c r="C382" s="59"/>
+      <c r="D382" s="59"/>
+      <c r="E382" s="102"/>
       <c r="N382" s="1"/>
     </row>
     <row r="383" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="6"/>
-      <c r="B383" s="60"/>
-      <c r="C383" s="60"/>
-      <c r="D383" s="60"/>
-      <c r="E383" s="60"/>
+      <c r="B383" s="59"/>
+      <c r="C383" s="59"/>
+      <c r="D383" s="59"/>
+      <c r="E383" s="102"/>
       <c r="N383" s="1"/>
     </row>
     <row r="384" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="6"/>
-      <c r="B384" s="60"/>
-      <c r="C384" s="60"/>
-      <c r="D384" s="60"/>
-      <c r="E384" s="60"/>
+      <c r="B384" s="59"/>
+      <c r="C384" s="59"/>
+      <c r="D384" s="59"/>
+      <c r="E384" s="102"/>
       <c r="N384" s="1"/>
     </row>
     <row r="385" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="6"/>
-      <c r="B385" s="60"/>
-      <c r="C385" s="60"/>
-      <c r="D385" s="60"/>
-      <c r="E385" s="60"/>
+      <c r="B385" s="59"/>
+      <c r="C385" s="59"/>
+      <c r="D385" s="59"/>
+      <c r="E385" s="102"/>
       <c r="N385" s="1"/>
     </row>
     <row r="386" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="6"/>
-      <c r="B386" s="60"/>
-      <c r="C386" s="60"/>
-      <c r="D386" s="60"/>
-      <c r="E386" s="60"/>
+      <c r="B386" s="59"/>
+      <c r="C386" s="59"/>
+      <c r="D386" s="59"/>
+      <c r="E386" s="102"/>
       <c r="N386" s="1"/>
     </row>
     <row r="387" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="6"/>
-      <c r="B387" s="60"/>
-      <c r="C387" s="60"/>
-      <c r="D387" s="60"/>
-      <c r="E387" s="60"/>
+      <c r="B387" s="59"/>
+      <c r="C387" s="59"/>
+      <c r="D387" s="59"/>
+      <c r="E387" s="102"/>
       <c r="N387" s="1"/>
     </row>
     <row r="388" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="6"/>
-      <c r="B388" s="60"/>
-      <c r="C388" s="60"/>
-      <c r="D388" s="60"/>
-      <c r="E388" s="60"/>
+      <c r="B388" s="59"/>
+      <c r="C388" s="59"/>
+      <c r="D388" s="59"/>
+      <c r="E388" s="102"/>
       <c r="N388" s="1"/>
     </row>
     <row r="389" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="6"/>
-      <c r="B389" s="60"/>
-      <c r="C389" s="60"/>
-      <c r="D389" s="60"/>
-      <c r="E389" s="60"/>
+      <c r="B389" s="59"/>
+      <c r="C389" s="59"/>
+      <c r="D389" s="59"/>
+      <c r="E389" s="102"/>
       <c r="N389" s="1"/>
     </row>
     <row r="390" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="6"/>
-      <c r="B390" s="60"/>
-      <c r="C390" s="60"/>
-      <c r="D390" s="60"/>
-      <c r="E390" s="60"/>
+      <c r="B390" s="59"/>
+      <c r="C390" s="59"/>
+      <c r="D390" s="59"/>
+      <c r="E390" s="102"/>
       <c r="N390" s="1"/>
     </row>
     <row r="391" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="6"/>
-      <c r="B391" s="60"/>
-      <c r="C391" s="60"/>
-      <c r="D391" s="60"/>
-      <c r="E391" s="60"/>
+      <c r="B391" s="59"/>
+      <c r="C391" s="59"/>
+      <c r="D391" s="59"/>
+      <c r="E391" s="102"/>
       <c r="N391" s="1"/>
     </row>
     <row r="392" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="6"/>
-      <c r="B392" s="60"/>
-      <c r="C392" s="60"/>
-      <c r="D392" s="60"/>
-      <c r="E392" s="60"/>
+      <c r="B392" s="59"/>
+      <c r="C392" s="59"/>
+      <c r="D392" s="59"/>
+      <c r="E392" s="102"/>
       <c r="N392" s="1"/>
     </row>
     <row r="393" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="6"/>
-      <c r="B393" s="60"/>
-      <c r="C393" s="60"/>
-      <c r="D393" s="60"/>
-      <c r="E393" s="60"/>
+      <c r="B393" s="59"/>
+      <c r="C393" s="59"/>
+      <c r="D393" s="59"/>
+      <c r="E393" s="102"/>
       <c r="N393" s="1"/>
     </row>
     <row r="394" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="6"/>
-      <c r="B394" s="60"/>
-      <c r="C394" s="60"/>
-      <c r="D394" s="60"/>
-      <c r="E394" s="60"/>
+      <c r="B394" s="59"/>
+      <c r="C394" s="59"/>
+      <c r="D394" s="59"/>
+      <c r="E394" s="102"/>
       <c r="N394" s="1"/>
     </row>
     <row r="395" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="6"/>
-      <c r="B395" s="60"/>
-      <c r="C395" s="60"/>
-      <c r="D395" s="60"/>
-      <c r="E395" s="60"/>
+      <c r="B395" s="59"/>
+      <c r="C395" s="59"/>
+      <c r="D395" s="59"/>
+      <c r="E395" s="102"/>
       <c r="N395" s="1"/>
     </row>
     <row r="396" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="6"/>
-      <c r="B396" s="60"/>
-      <c r="C396" s="60"/>
-      <c r="D396" s="60"/>
-      <c r="E396" s="60"/>
+      <c r="B396" s="59"/>
+      <c r="C396" s="59"/>
+      <c r="D396" s="59"/>
+      <c r="E396" s="102"/>
       <c r="N396" s="1"/>
     </row>
     <row r="397" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="6"/>
-      <c r="B397" s="60"/>
-      <c r="C397" s="60"/>
-      <c r="D397" s="60"/>
-      <c r="E397" s="60"/>
+      <c r="B397" s="59"/>
+      <c r="C397" s="59"/>
+      <c r="D397" s="59"/>
+      <c r="E397" s="102"/>
       <c r="N397" s="1"/>
     </row>
     <row r="398" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="6"/>
-      <c r="B398" s="60"/>
-      <c r="C398" s="60"/>
-      <c r="D398" s="60"/>
-      <c r="E398" s="60"/>
+      <c r="B398" s="59"/>
+      <c r="C398" s="59"/>
+      <c r="D398" s="59"/>
+      <c r="E398" s="102"/>
       <c r="N398" s="1"/>
     </row>
     <row r="399" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="6"/>
-      <c r="B399" s="60"/>
-      <c r="C399" s="60"/>
-      <c r="D399" s="60"/>
-      <c r="E399" s="60"/>
+      <c r="B399" s="59"/>
+      <c r="C399" s="59"/>
+      <c r="D399" s="59"/>
+      <c r="E399" s="102"/>
       <c r="N399" s="1"/>
     </row>
     <row r="400" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="6"/>
-      <c r="B400" s="60"/>
-      <c r="C400" s="60"/>
-      <c r="D400" s="60"/>
-      <c r="E400" s="60"/>
+      <c r="B400" s="59"/>
+      <c r="C400" s="59"/>
+      <c r="D400" s="59"/>
+      <c r="E400" s="102"/>
       <c r="N400" s="1"/>
     </row>
     <row r="401" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="6"/>
-      <c r="B401" s="60"/>
-      <c r="C401" s="60"/>
-      <c r="D401" s="60"/>
-      <c r="E401" s="60"/>
+      <c r="B401" s="59"/>
+      <c r="C401" s="59"/>
+      <c r="D401" s="59"/>
+      <c r="E401" s="102"/>
       <c r="N401" s="1"/>
     </row>
     <row r="402" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="6"/>
-      <c r="B402" s="60"/>
-      <c r="C402" s="60"/>
-      <c r="D402" s="60"/>
-      <c r="E402" s="60"/>
+      <c r="B402" s="59"/>
+      <c r="C402" s="59"/>
+      <c r="D402" s="59"/>
+      <c r="E402" s="102"/>
       <c r="N402" s="1"/>
     </row>
     <row r="403" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="6"/>
-      <c r="B403" s="60"/>
-      <c r="C403" s="60"/>
-      <c r="D403" s="60"/>
-      <c r="E403" s="60"/>
+      <c r="B403" s="59"/>
+      <c r="C403" s="59"/>
+      <c r="D403" s="59"/>
+      <c r="E403" s="102"/>
       <c r="N403" s="1"/>
     </row>
     <row r="404" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="6"/>
-      <c r="B404" s="60"/>
-      <c r="C404" s="60"/>
-      <c r="D404" s="60"/>
-      <c r="E404" s="60"/>
+      <c r="B404" s="59"/>
+      <c r="C404" s="59"/>
+      <c r="D404" s="59"/>
+      <c r="E404" s="102"/>
       <c r="N404" s="1"/>
     </row>
     <row r="405" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="6"/>
-      <c r="B405" s="60"/>
-      <c r="C405" s="60"/>
-      <c r="D405" s="60"/>
-      <c r="E405" s="60"/>
+      <c r="B405" s="59"/>
+      <c r="C405" s="59"/>
+      <c r="D405" s="59"/>
+      <c r="E405" s="102"/>
       <c r="N405" s="1"/>
     </row>
     <row r="406" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="6"/>
-      <c r="B406" s="60"/>
-      <c r="C406" s="60"/>
-      <c r="D406" s="60"/>
-      <c r="E406" s="60"/>
+      <c r="B406" s="59"/>
+      <c r="C406" s="59"/>
+      <c r="D406" s="59"/>
+      <c r="E406" s="102"/>
       <c r="N406" s="1"/>
     </row>
     <row r="407" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="6"/>
-      <c r="B407" s="60"/>
-      <c r="C407" s="60"/>
-      <c r="D407" s="60"/>
-      <c r="E407" s="60"/>
+      <c r="B407" s="59"/>
+      <c r="C407" s="59"/>
+      <c r="D407" s="59"/>
+      <c r="E407" s="102"/>
       <c r="N407" s="1"/>
     </row>
     <row r="408" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="6"/>
-      <c r="B408" s="60"/>
-      <c r="C408" s="60"/>
-      <c r="D408" s="60"/>
-      <c r="E408" s="60"/>
+      <c r="B408" s="59"/>
+      <c r="C408" s="59"/>
+      <c r="D408" s="59"/>
+      <c r="E408" s="102"/>
       <c r="N408" s="1"/>
     </row>
     <row r="409" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="6"/>
-      <c r="B409" s="60"/>
-      <c r="C409" s="60"/>
-      <c r="D409" s="60"/>
-      <c r="E409" s="60"/>
+      <c r="B409" s="59"/>
+      <c r="C409" s="59"/>
+      <c r="D409" s="59"/>
+      <c r="E409" s="102"/>
       <c r="N409" s="1"/>
     </row>
     <row r="410" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="6"/>
-      <c r="B410" s="60"/>
-      <c r="C410" s="60"/>
-      <c r="D410" s="60"/>
-      <c r="E410" s="60"/>
+      <c r="B410" s="59"/>
+      <c r="C410" s="59"/>
+      <c r="D410" s="59"/>
+      <c r="E410" s="102"/>
       <c r="N410" s="1"/>
     </row>
     <row r="411" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="6"/>
-      <c r="B411" s="60"/>
-      <c r="C411" s="60"/>
-      <c r="D411" s="60"/>
-      <c r="E411" s="60"/>
+      <c r="B411" s="59"/>
+      <c r="C411" s="59"/>
+      <c r="D411" s="59"/>
+      <c r="E411" s="102"/>
       <c r="N411" s="1"/>
     </row>
     <row r="412" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="6"/>
-      <c r="B412" s="60"/>
-      <c r="C412" s="60"/>
-      <c r="D412" s="60"/>
-      <c r="E412" s="60"/>
+      <c r="B412" s="59"/>
+      <c r="C412" s="59"/>
+      <c r="D412" s="59"/>
+      <c r="E412" s="102"/>
       <c r="N412" s="1"/>
     </row>
     <row r="413" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="6"/>
-      <c r="B413" s="60"/>
-      <c r="C413" s="60"/>
-      <c r="D413" s="60"/>
-      <c r="E413" s="60"/>
+      <c r="B413" s="59"/>
+      <c r="C413" s="59"/>
+      <c r="D413" s="59"/>
+      <c r="E413" s="102"/>
       <c r="N413" s="1"/>
     </row>
     <row r="414" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="6"/>
-      <c r="B414" s="60"/>
-      <c r="C414" s="60"/>
-      <c r="D414" s="60"/>
-      <c r="E414" s="60"/>
+      <c r="B414" s="59"/>
+      <c r="C414" s="59"/>
+      <c r="D414" s="59"/>
+      <c r="E414" s="102"/>
       <c r="N414" s="1"/>
     </row>
     <row r="415" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="6"/>
-      <c r="B415" s="60"/>
-      <c r="C415" s="60"/>
-      <c r="D415" s="60"/>
-      <c r="E415" s="60"/>
+      <c r="B415" s="59"/>
+      <c r="C415" s="59"/>
+      <c r="D415" s="59"/>
+      <c r="E415" s="102"/>
       <c r="N415" s="1"/>
     </row>
     <row r="416" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="6"/>
-      <c r="B416" s="60"/>
-      <c r="C416" s="60"/>
-      <c r="D416" s="60"/>
-      <c r="E416" s="60"/>
+      <c r="B416" s="59"/>
+      <c r="C416" s="59"/>
+      <c r="D416" s="59"/>
+      <c r="E416" s="102"/>
       <c r="N416" s="1"/>
     </row>
     <row r="417" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="6"/>
-      <c r="B417" s="60"/>
-      <c r="C417" s="60"/>
-      <c r="D417" s="60"/>
-      <c r="E417" s="60"/>
+      <c r="B417" s="59"/>
+      <c r="C417" s="59"/>
+      <c r="D417" s="59"/>
+      <c r="E417" s="102"/>
       <c r="N417" s="1"/>
     </row>
     <row r="418" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="6"/>
-      <c r="B418" s="60"/>
-      <c r="C418" s="60"/>
-      <c r="D418" s="60"/>
-      <c r="E418" s="60"/>
+      <c r="B418" s="59"/>
+      <c r="C418" s="59"/>
+      <c r="D418" s="59"/>
+      <c r="E418" s="102"/>
       <c r="N418" s="1"/>
     </row>
     <row r="419" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="6"/>
-      <c r="B419" s="60"/>
-      <c r="C419" s="60"/>
-      <c r="D419" s="60"/>
-      <c r="E419" s="60"/>
+      <c r="B419" s="59"/>
+      <c r="C419" s="59"/>
+      <c r="D419" s="59"/>
+      <c r="E419" s="102"/>
       <c r="N419" s="1"/>
     </row>
     <row r="420" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="6"/>
-      <c r="B420" s="60"/>
-      <c r="C420" s="60"/>
-      <c r="D420" s="60"/>
-      <c r="E420" s="60"/>
+      <c r="B420" s="59"/>
+      <c r="C420" s="59"/>
+      <c r="D420" s="59"/>
+      <c r="E420" s="102"/>
       <c r="N420" s="1"/>
     </row>
     <row r="421" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="6"/>
-      <c r="B421" s="60"/>
-      <c r="C421" s="60"/>
-      <c r="D421" s="60"/>
-      <c r="E421" s="60"/>
+      <c r="B421" s="59"/>
+      <c r="C421" s="59"/>
+      <c r="D421" s="59"/>
+      <c r="E421" s="102"/>
       <c r="N421" s="1"/>
     </row>
     <row r="422" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="6"/>
-      <c r="B422" s="60"/>
-      <c r="C422" s="60"/>
-      <c r="D422" s="60"/>
-      <c r="E422" s="60"/>
+      <c r="B422" s="59"/>
+      <c r="C422" s="59"/>
+      <c r="D422" s="59"/>
+      <c r="E422" s="102"/>
       <c r="N422" s="1"/>
     </row>
     <row r="423" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="6"/>
-      <c r="B423" s="60"/>
-      <c r="C423" s="60"/>
-      <c r="D423" s="60"/>
-      <c r="E423" s="60"/>
+      <c r="B423" s="59"/>
+      <c r="C423" s="59"/>
+      <c r="D423" s="59"/>
+      <c r="E423" s="102"/>
       <c r="N423" s="1"/>
     </row>
     <row r="424" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="6"/>
-      <c r="B424" s="60"/>
-      <c r="C424" s="60"/>
-      <c r="D424" s="60"/>
-      <c r="E424" s="60"/>
+      <c r="B424" s="59"/>
+      <c r="C424" s="59"/>
+      <c r="D424" s="59"/>
+      <c r="E424" s="102"/>
       <c r="N424" s="1"/>
     </row>
     <row r="425" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="6"/>
-      <c r="B425" s="60"/>
-      <c r="C425" s="60"/>
-      <c r="D425" s="60"/>
-      <c r="E425" s="60"/>
+      <c r="B425" s="59"/>
+      <c r="C425" s="59"/>
+      <c r="D425" s="59"/>
+      <c r="E425" s="102"/>
       <c r="N425" s="1"/>
     </row>
     <row r="426" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="6"/>
-      <c r="B426" s="60"/>
-      <c r="C426" s="60"/>
-      <c r="D426" s="60"/>
-      <c r="E426" s="60"/>
+      <c r="B426" s="59"/>
+      <c r="C426" s="59"/>
+      <c r="D426" s="59"/>
+      <c r="E426" s="102"/>
       <c r="N426" s="1"/>
     </row>
     <row r="427" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="6"/>
-      <c r="B427" s="60"/>
-      <c r="C427" s="60"/>
-      <c r="D427" s="60"/>
-      <c r="E427" s="60"/>
+      <c r="B427" s="59"/>
+      <c r="C427" s="59"/>
+      <c r="D427" s="59"/>
+      <c r="E427" s="102"/>
       <c r="N427" s="1"/>
     </row>
     <row r="428" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="6"/>
-      <c r="B428" s="60"/>
-      <c r="C428" s="60"/>
-      <c r="D428" s="60"/>
-      <c r="E428" s="60"/>
+      <c r="B428" s="59"/>
+      <c r="C428" s="59"/>
+      <c r="D428" s="59"/>
+      <c r="E428" s="102"/>
       <c r="N428" s="1"/>
     </row>
     <row r="429" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="6"/>
-      <c r="B429" s="60"/>
-      <c r="C429" s="60"/>
-      <c r="D429" s="60"/>
-      <c r="E429" s="60"/>
+      <c r="B429" s="59"/>
+      <c r="C429" s="59"/>
+      <c r="D429" s="59"/>
+      <c r="E429" s="102"/>
       <c r="N429" s="1"/>
     </row>
     <row r="430" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="6"/>
-      <c r="B430" s="60"/>
-      <c r="C430" s="60"/>
-      <c r="D430" s="60"/>
-      <c r="E430" s="60"/>
+      <c r="B430" s="59"/>
+      <c r="C430" s="59"/>
+      <c r="D430" s="59"/>
+      <c r="E430" s="102"/>
       <c r="N430" s="1"/>
     </row>
     <row r="431" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="6"/>
-      <c r="B431" s="60"/>
-      <c r="C431" s="60"/>
-      <c r="D431" s="60"/>
-      <c r="E431" s="60"/>
+      <c r="B431" s="59"/>
+      <c r="C431" s="59"/>
+      <c r="D431" s="59"/>
+      <c r="E431" s="102"/>
       <c r="N431" s="1"/>
     </row>
     <row r="432" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="6"/>
-      <c r="B432" s="60"/>
-      <c r="C432" s="60"/>
-      <c r="D432" s="60"/>
-      <c r="E432" s="60"/>
+      <c r="B432" s="59"/>
+      <c r="C432" s="59"/>
+      <c r="D432" s="59"/>
+      <c r="E432" s="102"/>
       <c r="N432" s="1"/>
     </row>
     <row r="433" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="6"/>
-      <c r="B433" s="60"/>
-      <c r="C433" s="60"/>
-      <c r="D433" s="60"/>
-      <c r="E433" s="60"/>
+      <c r="B433" s="59"/>
+      <c r="C433" s="59"/>
+      <c r="D433" s="59"/>
+      <c r="E433" s="102"/>
       <c r="N433" s="1"/>
     </row>
     <row r="434" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="6"/>
-      <c r="B434" s="60"/>
-      <c r="C434" s="60"/>
-      <c r="D434" s="60"/>
-      <c r="E434" s="60"/>
+      <c r="B434" s="59"/>
+      <c r="C434" s="59"/>
+      <c r="D434" s="59"/>
+      <c r="E434" s="102"/>
       <c r="N434" s="1"/>
     </row>
     <row r="435" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="6"/>
-      <c r="B435" s="60"/>
-      <c r="C435" s="60"/>
-      <c r="D435" s="60"/>
-      <c r="E435" s="60"/>
+      <c r="B435" s="59"/>
+      <c r="C435" s="59"/>
+      <c r="D435" s="59"/>
+      <c r="E435" s="102"/>
       <c r="N435" s="1"/>
     </row>
     <row r="436" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="6"/>
-      <c r="B436" s="60"/>
-      <c r="C436" s="60"/>
-      <c r="D436" s="60"/>
-      <c r="E436" s="60"/>
+      <c r="B436" s="59"/>
+      <c r="C436" s="59"/>
+      <c r="D436" s="59"/>
+      <c r="E436" s="102"/>
       <c r="N436" s="1"/>
     </row>
     <row r="437" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="6"/>
-      <c r="B437" s="60"/>
-      <c r="C437" s="60"/>
-      <c r="D437" s="60"/>
-      <c r="E437" s="60"/>
+      <c r="B437" s="59"/>
+      <c r="C437" s="59"/>
+      <c r="D437" s="59"/>
+      <c r="E437" s="102"/>
       <c r="N437" s="1"/>
     </row>
     <row r="438" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="6"/>
-      <c r="B438" s="60"/>
-      <c r="C438" s="60"/>
-      <c r="D438" s="60"/>
-      <c r="E438" s="60"/>
+      <c r="B438" s="59"/>
+      <c r="C438" s="59"/>
+      <c r="D438" s="59"/>
+      <c r="E438" s="102"/>
       <c r="N438" s="1"/>
     </row>
     <row r="439" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="6"/>
-      <c r="B439" s="60"/>
-      <c r="C439" s="60"/>
-      <c r="D439" s="60"/>
-      <c r="E439" s="60"/>
+      <c r="B439" s="59"/>
+      <c r="C439" s="59"/>
+      <c r="D439" s="59"/>
+      <c r="E439" s="102"/>
       <c r="N439" s="1"/>
     </row>
     <row r="440" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="6"/>
-      <c r="B440" s="60"/>
-      <c r="C440" s="60"/>
-      <c r="D440" s="60"/>
-      <c r="E440" s="60"/>
+      <c r="B440" s="59"/>
+      <c r="C440" s="59"/>
+      <c r="D440" s="59"/>
+      <c r="E440" s="102"/>
       <c r="N440" s="1"/>
     </row>
     <row r="441" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="6"/>
-      <c r="B441" s="60"/>
-      <c r="C441" s="60"/>
-      <c r="D441" s="60"/>
-      <c r="E441" s="60"/>
+      <c r="B441" s="59"/>
+      <c r="C441" s="59"/>
+      <c r="D441" s="59"/>
+      <c r="E441" s="102"/>
       <c r="N441" s="1"/>
     </row>
     <row r="442" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="6"/>
-      <c r="B442" s="60"/>
-      <c r="C442" s="60"/>
-      <c r="D442" s="60"/>
-      <c r="E442" s="60"/>
+      <c r="B442" s="59"/>
+      <c r="C442" s="59"/>
+      <c r="D442" s="59"/>
+      <c r="E442" s="102"/>
       <c r="N442" s="1"/>
     </row>
     <row r="443" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="6"/>
-      <c r="B443" s="60"/>
-      <c r="C443" s="60"/>
-      <c r="D443" s="60"/>
-      <c r="E443" s="60"/>
+      <c r="B443" s="59"/>
+      <c r="C443" s="59"/>
+      <c r="D443" s="59"/>
+      <c r="E443" s="102"/>
       <c r="N443" s="1"/>
     </row>
     <row r="444" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="6"/>
-      <c r="B444" s="60"/>
-      <c r="C444" s="60"/>
-      <c r="D444" s="60"/>
-      <c r="E444" s="60"/>
+      <c r="B444" s="59"/>
+      <c r="C444" s="59"/>
+      <c r="D444" s="59"/>
+      <c r="E444" s="102"/>
       <c r="N444" s="1"/>
     </row>
     <row r="445" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="6"/>
-      <c r="B445" s="60"/>
-      <c r="C445" s="60"/>
-      <c r="D445" s="60"/>
-      <c r="E445" s="60"/>
+      <c r="B445" s="59"/>
+      <c r="C445" s="59"/>
+      <c r="D445" s="59"/>
+      <c r="E445" s="102"/>
       <c r="N445" s="1"/>
     </row>
     <row r="446" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="6"/>
-      <c r="B446" s="60"/>
-      <c r="C446" s="60"/>
-      <c r="D446" s="60"/>
-      <c r="E446" s="60"/>
+      <c r="B446" s="59"/>
+      <c r="C446" s="59"/>
+      <c r="D446" s="59"/>
+      <c r="E446" s="102"/>
       <c r="N446" s="1"/>
     </row>
     <row r="447" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="6"/>
-      <c r="B447" s="60"/>
-      <c r="C447" s="60"/>
-      <c r="D447" s="60"/>
-      <c r="E447" s="60"/>
+      <c r="B447" s="59"/>
+      <c r="C447" s="59"/>
+      <c r="D447" s="59"/>
+      <c r="E447" s="102"/>
       <c r="N447" s="1"/>
     </row>
     <row r="448" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="6"/>
-      <c r="B448" s="60"/>
-      <c r="C448" s="60"/>
-      <c r="D448" s="60"/>
-      <c r="E448" s="60"/>
+      <c r="B448" s="59"/>
+      <c r="C448" s="59"/>
+      <c r="D448" s="59"/>
+      <c r="E448" s="102"/>
       <c r="N448" s="1"/>
     </row>
     <row r="449" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="6"/>
-      <c r="B449" s="60"/>
-      <c r="C449" s="60"/>
-      <c r="D449" s="60"/>
-      <c r="E449" s="60"/>
+      <c r="B449" s="59"/>
+      <c r="C449" s="59"/>
+      <c r="D449" s="59"/>
+      <c r="E449" s="102"/>
       <c r="N449" s="1"/>
     </row>
     <row r="450" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="6"/>
-      <c r="B450" s="60"/>
-      <c r="C450" s="60"/>
-      <c r="D450" s="60"/>
-      <c r="E450" s="60"/>
+      <c r="B450" s="59"/>
+      <c r="C450" s="59"/>
+      <c r="D450" s="59"/>
+      <c r="E450" s="102"/>
       <c r="N450" s="1"/>
     </row>
     <row r="451" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="6"/>
-      <c r="B451" s="60"/>
-      <c r="C451" s="60"/>
-      <c r="D451" s="60"/>
-      <c r="E451" s="60"/>
+      <c r="B451" s="59"/>
+      <c r="C451" s="59"/>
+      <c r="D451" s="59"/>
+      <c r="E451" s="102"/>
       <c r="N451" s="1"/>
     </row>
     <row r="452" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="6"/>
-      <c r="B452" s="60"/>
-      <c r="C452" s="60"/>
-      <c r="D452" s="60"/>
-      <c r="E452" s="60"/>
+      <c r="B452" s="59"/>
+      <c r="C452" s="59"/>
+      <c r="D452" s="59"/>
+      <c r="E452" s="102"/>
       <c r="N452" s="1"/>
     </row>
     <row r="453" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="6"/>
-      <c r="B453" s="60"/>
-      <c r="C453" s="60"/>
-      <c r="D453" s="60"/>
-      <c r="E453" s="60"/>
+      <c r="B453" s="59"/>
+      <c r="C453" s="59"/>
+      <c r="D453" s="59"/>
+      <c r="E453" s="102"/>
       <c r="N453" s="1"/>
     </row>
     <row r="454" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="6"/>
-      <c r="B454" s="60"/>
-      <c r="C454" s="60"/>
-      <c r="D454" s="60"/>
-      <c r="E454" s="60"/>
+      <c r="B454" s="59"/>
+      <c r="C454" s="59"/>
+      <c r="D454" s="59"/>
+      <c r="E454" s="102"/>
       <c r="N454" s="1"/>
     </row>
     <row r="455" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="6"/>
-      <c r="B455" s="60"/>
-      <c r="C455" s="60"/>
-      <c r="D455" s="60"/>
-      <c r="E455" s="60"/>
+      <c r="B455" s="59"/>
+      <c r="C455" s="59"/>
+      <c r="D455" s="59"/>
+      <c r="E455" s="102"/>
       <c r="N455" s="1"/>
     </row>
     <row r="456" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="6"/>
-      <c r="B456" s="60"/>
-      <c r="C456" s="60"/>
-      <c r="D456" s="60"/>
-      <c r="E456" s="60"/>
+      <c r="B456" s="59"/>
+      <c r="C456" s="59"/>
+      <c r="D456" s="59"/>
+      <c r="E456" s="102"/>
       <c r="N456" s="1"/>
     </row>
     <row r="457" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="6"/>
-      <c r="B457" s="60"/>
-      <c r="C457" s="60"/>
-      <c r="D457" s="60"/>
-      <c r="E457" s="60"/>
+      <c r="B457" s="59"/>
+      <c r="C457" s="59"/>
+      <c r="D457" s="59"/>
+      <c r="E457" s="102"/>
       <c r="N457" s="1"/>
     </row>
     <row r="458" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="6"/>
-      <c r="B458" s="60"/>
-      <c r="C458" s="60"/>
-      <c r="D458" s="60"/>
-      <c r="E458" s="60"/>
+      <c r="B458" s="59"/>
+      <c r="C458" s="59"/>
+      <c r="D458" s="59"/>
+      <c r="E458" s="102"/>
       <c r="N458" s="1"/>
     </row>
     <row r="459" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="6"/>
-      <c r="B459" s="60"/>
-      <c r="C459" s="60"/>
-      <c r="D459" s="60"/>
-      <c r="E459" s="60"/>
+      <c r="B459" s="59"/>
+      <c r="C459" s="59"/>
+      <c r="D459" s="59"/>
+      <c r="E459" s="102"/>
       <c r="N459" s="1"/>
     </row>
     <row r="460" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="6"/>
-      <c r="B460" s="60"/>
-      <c r="C460" s="60"/>
-      <c r="D460" s="60"/>
-      <c r="E460" s="60"/>
+      <c r="B460" s="59"/>
+      <c r="C460" s="59"/>
+      <c r="D460" s="59"/>
+      <c r="E460" s="102"/>
       <c r="N460" s="1"/>
     </row>
     <row r="461" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="6"/>
-      <c r="B461" s="60"/>
-      <c r="C461" s="60"/>
-      <c r="D461" s="60"/>
-      <c r="E461" s="60"/>
+      <c r="B461" s="59"/>
+      <c r="C461" s="59"/>
+      <c r="D461" s="59"/>
+      <c r="E461" s="102"/>
       <c r="N461" s="1"/>
     </row>
     <row r="462" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="6"/>
-      <c r="B462" s="60"/>
-      <c r="C462" s="60"/>
-      <c r="D462" s="60"/>
-      <c r="E462" s="60"/>
+      <c r="B462" s="59"/>
+      <c r="C462" s="59"/>
+      <c r="D462" s="59"/>
+      <c r="E462" s="102"/>
       <c r="N462" s="1"/>
     </row>
     <row r="463" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="6"/>
-      <c r="B463" s="60"/>
-      <c r="C463" s="60"/>
-      <c r="D463" s="60"/>
-      <c r="E463" s="60"/>
+      <c r="B463" s="59"/>
+      <c r="C463" s="59"/>
+      <c r="D463" s="59"/>
+      <c r="E463" s="102"/>
       <c r="N463" s="1"/>
     </row>
     <row r="464" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="6"/>
-      <c r="B464" s="60"/>
-      <c r="C464" s="60"/>
-      <c r="D464" s="60"/>
-      <c r="E464" s="60"/>
+      <c r="B464" s="59"/>
+      <c r="C464" s="59"/>
+      <c r="D464" s="59"/>
+      <c r="E464" s="102"/>
       <c r="N464" s="1"/>
     </row>
     <row r="465" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="6"/>
-      <c r="B465" s="60"/>
-      <c r="C465" s="60"/>
-      <c r="D465" s="60"/>
-      <c r="E465" s="60"/>
+      <c r="B465" s="59"/>
+      <c r="C465" s="59"/>
+      <c r="D465" s="59"/>
+      <c r="E465" s="102"/>
       <c r="N465" s="1"/>
     </row>
     <row r="466" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="6"/>
-      <c r="B466" s="60"/>
-      <c r="C466" s="60"/>
-      <c r="D466" s="60"/>
-      <c r="E466" s="60"/>
+      <c r="B466" s="59"/>
+      <c r="C466" s="59"/>
+      <c r="D466" s="59"/>
+      <c r="E466" s="102"/>
       <c r="N466" s="1"/>
     </row>
     <row r="467" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="6"/>
-      <c r="B467" s="60"/>
-      <c r="C467" s="60"/>
-      <c r="D467" s="60"/>
-      <c r="E467" s="60"/>
+      <c r="B467" s="59"/>
+      <c r="C467" s="59"/>
+      <c r="D467" s="59"/>
+      <c r="E467" s="102"/>
       <c r="N467" s="1"/>
     </row>
     <row r="468" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="6"/>
-      <c r="B468" s="60"/>
-      <c r="C468" s="60"/>
-      <c r="D468" s="60"/>
-      <c r="E468" s="60"/>
+      <c r="B468" s="59"/>
+      <c r="C468" s="59"/>
+      <c r="D468" s="59"/>
+      <c r="E468" s="102"/>
       <c r="N468" s="1"/>
     </row>
     <row r="469" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="6"/>
-      <c r="B469" s="60"/>
-      <c r="C469" s="60"/>
-      <c r="D469" s="60"/>
-      <c r="E469" s="60"/>
+      <c r="B469" s="59"/>
+      <c r="C469" s="59"/>
+      <c r="D469" s="59"/>
+      <c r="E469" s="102"/>
       <c r="N469" s="1"/>
     </row>
     <row r="470" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="6"/>
-      <c r="B470" s="60"/>
-      <c r="C470" s="60"/>
-      <c r="D470" s="60"/>
-      <c r="E470" s="60"/>
+      <c r="B470" s="59"/>
+      <c r="C470" s="59"/>
+      <c r="D470" s="59"/>
+      <c r="E470" s="102"/>
       <c r="N470" s="1"/>
     </row>
     <row r="471" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="6"/>
-      <c r="B471" s="60"/>
-      <c r="C471" s="60"/>
-      <c r="D471" s="60"/>
-      <c r="E471" s="60"/>
+      <c r="B471" s="59"/>
+      <c r="C471" s="59"/>
+      <c r="D471" s="59"/>
+      <c r="E471" s="102"/>
       <c r="N471" s="1"/>
     </row>
     <row r="472" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="6"/>
-      <c r="B472" s="60"/>
-      <c r="C472" s="60"/>
-      <c r="D472" s="60"/>
-      <c r="E472" s="60"/>
+      <c r="B472" s="59"/>
+      <c r="C472" s="59"/>
+      <c r="D472" s="59"/>
+      <c r="E472" s="102"/>
       <c r="N472" s="1"/>
     </row>
     <row r="473" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="6"/>
-      <c r="B473" s="60"/>
-      <c r="C473" s="60"/>
-      <c r="D473" s="60"/>
-      <c r="E473" s="60"/>
+      <c r="B473" s="59"/>
+      <c r="C473" s="59"/>
+      <c r="D473" s="59"/>
+      <c r="E473" s="102"/>
       <c r="N473" s="1"/>
     </row>
     <row r="474" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="6"/>
-      <c r="B474" s="60"/>
-      <c r="C474" s="60"/>
-      <c r="D474" s="60"/>
-      <c r="E474" s="60"/>
+      <c r="B474" s="59"/>
+      <c r="C474" s="59"/>
+      <c r="D474" s="59"/>
+      <c r="E474" s="102"/>
       <c r="N474" s="1"/>
     </row>
     <row r="475" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="6"/>
-      <c r="B475" s="60"/>
-      <c r="C475" s="60"/>
-      <c r="D475" s="60"/>
-      <c r="E475" s="60"/>
+      <c r="B475" s="59"/>
+      <c r="C475" s="59"/>
+      <c r="D475" s="59"/>
+      <c r="E475" s="102"/>
       <c r="N475" s="1"/>
     </row>
     <row r="476" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="6"/>
-      <c r="B476" s="60"/>
-      <c r="C476" s="60"/>
-      <c r="D476" s="60"/>
-      <c r="E476" s="60"/>
+      <c r="B476" s="59"/>
+      <c r="C476" s="59"/>
+      <c r="D476" s="59"/>
+      <c r="E476" s="102"/>
       <c r="N476" s="1"/>
     </row>
     <row r="477" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="6"/>
-      <c r="B477" s="60"/>
-      <c r="C477" s="60"/>
-      <c r="D477" s="60"/>
-      <c r="E477" s="60"/>
+      <c r="B477" s="59"/>
+      <c r="C477" s="59"/>
+      <c r="D477" s="59"/>
+      <c r="E477" s="102"/>
       <c r="N477" s="1"/>
     </row>
     <row r="478" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="6"/>
-      <c r="B478" s="60"/>
-      <c r="C478" s="60"/>
-      <c r="D478" s="60"/>
-      <c r="E478" s="60"/>
+      <c r="B478" s="59"/>
+      <c r="C478" s="59"/>
+      <c r="D478" s="59"/>
+      <c r="E478" s="102"/>
       <c r="N478" s="1"/>
     </row>
     <row r="479" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="6"/>
-      <c r="B479" s="60"/>
-      <c r="C479" s="60"/>
-      <c r="D479" s="60"/>
-      <c r="E479" s="60"/>
+      <c r="B479" s="59"/>
+      <c r="C479" s="59"/>
+      <c r="D479" s="59"/>
+      <c r="E479" s="102"/>
       <c r="N479" s="1"/>
     </row>
     <row r="480" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="6"/>
-      <c r="B480" s="60"/>
-      <c r="C480" s="60"/>
-      <c r="D480" s="60"/>
-      <c r="E480" s="60"/>
+      <c r="B480" s="59"/>
+      <c r="C480" s="59"/>
+      <c r="D480" s="59"/>
+      <c r="E480" s="102"/>
       <c r="N480" s="1"/>
     </row>
     <row r="481" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="6"/>
-      <c r="B481" s="60"/>
-      <c r="C481" s="60"/>
-      <c r="D481" s="60"/>
-      <c r="E481" s="60"/>
+      <c r="B481" s="59"/>
+      <c r="C481" s="59"/>
+      <c r="D481" s="59"/>
+      <c r="E481" s="102"/>
       <c r="N481" s="1"/>
     </row>
     <row r="482" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="6"/>
-      <c r="B482" s="60"/>
-      <c r="C482" s="60"/>
-      <c r="D482" s="60"/>
-      <c r="E482" s="60"/>
+      <c r="B482" s="59"/>
+      <c r="C482" s="59"/>
+      <c r="D482" s="59"/>
+      <c r="E482" s="102"/>
       <c r="N482" s="1"/>
     </row>
     <row r="483" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="6"/>
-      <c r="B483" s="60"/>
-      <c r="C483" s="60"/>
-      <c r="D483" s="60"/>
-      <c r="E483" s="60"/>
+      <c r="B483" s="59"/>
+      <c r="C483" s="59"/>
+      <c r="D483" s="59"/>
+      <c r="E483" s="102"/>
       <c r="N483" s="1"/>
     </row>
     <row r="484" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="6"/>
-      <c r="B484" s="60"/>
-      <c r="C484" s="60"/>
-      <c r="D484" s="60"/>
-      <c r="E484" s="60"/>
+      <c r="B484" s="59"/>
+      <c r="C484" s="59"/>
+      <c r="D484" s="59"/>
+      <c r="E484" s="102"/>
       <c r="N484" s="1"/>
     </row>
     <row r="485" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="6"/>
-      <c r="B485" s="60"/>
-      <c r="C485" s="60"/>
-      <c r="D485" s="60"/>
-      <c r="E485" s="60"/>
+      <c r="B485" s="59"/>
+      <c r="C485" s="59"/>
+      <c r="D485" s="59"/>
+      <c r="E485" s="102"/>
       <c r="N485" s="1"/>
     </row>
     <row r="486" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="6"/>
-      <c r="B486" s="60"/>
-      <c r="C486" s="60"/>
-      <c r="D486" s="60"/>
-      <c r="E486" s="60"/>
+      <c r="B486" s="59"/>
+      <c r="C486" s="59"/>
+      <c r="D486" s="59"/>
+      <c r="E486" s="102"/>
       <c r="N486" s="1"/>
     </row>
     <row r="487" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="6"/>
-      <c r="B487" s="60"/>
-      <c r="C487" s="60"/>
-      <c r="D487" s="60"/>
-      <c r="E487" s="60"/>
+      <c r="B487" s="59"/>
+      <c r="C487" s="59"/>
+      <c r="D487" s="59"/>
+      <c r="E487" s="102"/>
       <c r="N487" s="1"/>
     </row>
     <row r="488" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="6"/>
-      <c r="B488" s="60"/>
-      <c r="C488" s="60"/>
-      <c r="D488" s="60"/>
-      <c r="E488" s="60"/>
+      <c r="B488" s="59"/>
+      <c r="C488" s="59"/>
+      <c r="D488" s="59"/>
+      <c r="E488" s="102"/>
       <c r="N488" s="1"/>
     </row>
     <row r="489" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="6"/>
-      <c r="B489" s="60"/>
-      <c r="C489" s="60"/>
-      <c r="D489" s="60"/>
-      <c r="E489" s="60"/>
+      <c r="B489" s="59"/>
+      <c r="C489" s="59"/>
+      <c r="D489" s="59"/>
+      <c r="E489" s="102"/>
       <c r="N489" s="1"/>
     </row>
     <row r="490" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="6"/>
-      <c r="B490" s="60"/>
-      <c r="C490" s="60"/>
-      <c r="D490" s="60"/>
-      <c r="E490" s="60"/>
+      <c r="B490" s="59"/>
+      <c r="C490" s="59"/>
+      <c r="D490" s="59"/>
+      <c r="E490" s="102"/>
       <c r="N490" s="1"/>
     </row>
     <row r="491" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="6"/>
-      <c r="B491" s="60"/>
-      <c r="C491" s="60"/>
-      <c r="D491" s="60"/>
-      <c r="E491" s="60"/>
+      <c r="B491" s="59"/>
+      <c r="C491" s="59"/>
+      <c r="D491" s="59"/>
+      <c r="E491" s="102"/>
       <c r="N491" s="1"/>
     </row>
     <row r="492" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="6"/>
-      <c r="B492" s="60"/>
-      <c r="C492" s="60"/>
-      <c r="D492" s="60"/>
-      <c r="E492" s="60"/>
+      <c r="B492" s="59"/>
+      <c r="C492" s="59"/>
+      <c r="D492" s="59"/>
+      <c r="E492" s="102"/>
       <c r="N492" s="1"/>
     </row>
     <row r="493" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="6"/>
-      <c r="B493" s="60"/>
-      <c r="C493" s="60"/>
-      <c r="D493" s="60"/>
-      <c r="E493" s="60"/>
+      <c r="B493" s="59"/>
+      <c r="C493" s="59"/>
+      <c r="D493" s="59"/>
+      <c r="E493" s="102"/>
       <c r="N493" s="1"/>
     </row>
     <row r="494" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="6"/>
-      <c r="B494" s="60"/>
-      <c r="C494" s="60"/>
-      <c r="D494" s="60"/>
-      <c r="E494" s="60"/>
+      <c r="B494" s="59"/>
+      <c r="C494" s="59"/>
+      <c r="D494" s="59"/>
+      <c r="E494" s="102"/>
       <c r="N494" s="1"/>
     </row>
     <row r="495" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="6"/>
-      <c r="B495" s="60"/>
-      <c r="C495" s="60"/>
-      <c r="D495" s="60"/>
-      <c r="E495" s="60"/>
+      <c r="B495" s="59"/>
+      <c r="C495" s="59"/>
+      <c r="D495" s="59"/>
+      <c r="E495" s="102"/>
       <c r="N495" s="1"/>
     </row>
     <row r="496" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="6"/>
-      <c r="B496" s="60"/>
-      <c r="C496" s="60"/>
-      <c r="D496" s="60"/>
-      <c r="E496" s="60"/>
+      <c r="B496" s="59"/>
+      <c r="C496" s="59"/>
+      <c r="D496" s="59"/>
+      <c r="E496" s="102"/>
       <c r="N496" s="1"/>
     </row>
     <row r="497" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="6"/>
-      <c r="B497" s="60"/>
-      <c r="C497" s="60"/>
-      <c r="D497" s="60"/>
-      <c r="E497" s="60"/>
+      <c r="B497" s="59"/>
+      <c r="C497" s="59"/>
+      <c r="D497" s="59"/>
+      <c r="E497" s="102"/>
       <c r="N497" s="1"/>
     </row>
     <row r="498" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="6"/>
-      <c r="B498" s="60"/>
-      <c r="C498" s="60"/>
-      <c r="D498" s="60"/>
-      <c r="E498" s="60"/>
+      <c r="B498" s="59"/>
+      <c r="C498" s="59"/>
+      <c r="D498" s="59"/>
+      <c r="E498" s="102"/>
       <c r="N498" s="1"/>
     </row>
     <row r="499" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="6"/>
-      <c r="B499" s="60"/>
-      <c r="C499" s="60"/>
-      <c r="D499" s="60"/>
-      <c r="E499" s="60"/>
+      <c r="B499" s="59"/>
+      <c r="C499" s="59"/>
+      <c r="D499" s="59"/>
+      <c r="E499" s="102"/>
       <c r="N499" s="1"/>
     </row>
     <row r="500" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="6"/>
-      <c r="B500" s="60"/>
-      <c r="C500" s="60"/>
-      <c r="D500" s="60"/>
-      <c r="E500" s="60"/>
+      <c r="B500" s="59"/>
+      <c r="C500" s="59"/>
+      <c r="D500" s="59"/>
+      <c r="E500" s="102"/>
       <c r="N500" s="1"/>
     </row>
     <row r="501" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="6"/>
-      <c r="B501" s="60"/>
-      <c r="C501" s="60"/>
-      <c r="D501" s="60"/>
-      <c r="E501" s="60"/>
+      <c r="B501" s="59"/>
+      <c r="C501" s="59"/>
+      <c r="D501" s="59"/>
+      <c r="E501" s="102"/>
       <c r="N501" s="1"/>
     </row>
     <row r="502" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="6"/>
-      <c r="B502" s="60"/>
-      <c r="C502" s="60"/>
-      <c r="D502" s="60"/>
-      <c r="E502" s="60"/>
+      <c r="B502" s="59"/>
+      <c r="C502" s="59"/>
+      <c r="D502" s="59"/>
+      <c r="E502" s="102"/>
       <c r="N502" s="1"/>
     </row>
     <row r="503" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="6"/>
-      <c r="B503" s="60"/>
-      <c r="C503" s="60"/>
-      <c r="D503" s="60"/>
-      <c r="E503" s="60"/>
+      <c r="B503" s="59"/>
+      <c r="C503" s="59"/>
+      <c r="D503" s="59"/>
+      <c r="E503" s="102"/>
       <c r="N503" s="1"/>
     </row>
     <row r="504" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="6"/>
-      <c r="B504" s="60"/>
-      <c r="C504" s="60"/>
-      <c r="D504" s="60"/>
-      <c r="E504" s="60"/>
+      <c r="B504" s="59"/>
+      <c r="C504" s="59"/>
+      <c r="D504" s="59"/>
+      <c r="E504" s="102"/>
       <c r="N504" s="1"/>
     </row>
     <row r="505" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="6"/>
-      <c r="B505" s="60"/>
-      <c r="C505" s="60"/>
-      <c r="D505" s="60"/>
-      <c r="E505" s="60"/>
+      <c r="B505" s="59"/>
+      <c r="C505" s="59"/>
+      <c r="D505" s="59"/>
+      <c r="E505" s="102"/>
       <c r="N505" s="1"/>
     </row>
     <row r="506" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="6"/>
-      <c r="B506" s="60"/>
-      <c r="C506" s="60"/>
-      <c r="D506" s="60"/>
-      <c r="E506" s="60"/>
+      <c r="B506" s="59"/>
+      <c r="C506" s="59"/>
+      <c r="D506" s="59"/>
+      <c r="E506" s="102"/>
       <c r="N506" s="1"/>
     </row>
     <row r="507" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="6"/>
-      <c r="B507" s="60"/>
-      <c r="C507" s="60"/>
-      <c r="D507" s="60"/>
-      <c r="E507" s="60"/>
+      <c r="B507" s="59"/>
+      <c r="C507" s="59"/>
+      <c r="D507" s="59"/>
+      <c r="E507" s="102"/>
       <c r="N507" s="1"/>
     </row>
     <row r="508" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="6"/>
-      <c r="B508" s="60"/>
-      <c r="C508" s="60"/>
-      <c r="D508" s="60"/>
-      <c r="E508" s="60"/>
+      <c r="B508" s="59"/>
+      <c r="C508" s="59"/>
+      <c r="D508" s="59"/>
+      <c r="E508" s="102"/>
       <c r="N508" s="1"/>
     </row>
     <row r="509" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="6"/>
-      <c r="B509" s="60"/>
-      <c r="C509" s="60"/>
-      <c r="D509" s="60"/>
-      <c r="E509" s="60"/>
+      <c r="B509" s="59"/>
+      <c r="C509" s="59"/>
+      <c r="D509" s="59"/>
+      <c r="E509" s="102"/>
       <c r="N509" s="1"/>
     </row>
     <row r="510" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="6"/>
-      <c r="B510" s="60"/>
-      <c r="C510" s="60"/>
-      <c r="D510" s="60"/>
-      <c r="E510" s="60"/>
+      <c r="B510" s="59"/>
+      <c r="C510" s="59"/>
+      <c r="D510" s="59"/>
+      <c r="E510" s="102"/>
       <c r="N510" s="1"/>
     </row>
     <row r="511" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="6"/>
-      <c r="B511" s="60"/>
-      <c r="C511" s="60"/>
-      <c r="D511" s="60"/>
-      <c r="E511" s="60"/>
+      <c r="B511" s="59"/>
+      <c r="C511" s="59"/>
+      <c r="D511" s="59"/>
+      <c r="E511" s="102"/>
       <c r="N511" s="1"/>
     </row>
     <row r="512" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="6"/>
-      <c r="B512" s="60"/>
-      <c r="C512" s="60"/>
-      <c r="D512" s="60"/>
-      <c r="E512" s="60"/>
+      <c r="B512" s="59"/>
+      <c r="C512" s="59"/>
+      <c r="D512" s="59"/>
+      <c r="E512" s="102"/>
       <c r="N512" s="1"/>
     </row>
     <row r="513" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="6"/>
-      <c r="B513" s="60"/>
-      <c r="C513" s="60"/>
-      <c r="D513" s="60"/>
-      <c r="E513" s="60"/>
+      <c r="B513" s="59"/>
+      <c r="C513" s="59"/>
+      <c r="D513" s="59"/>
+      <c r="E513" s="102"/>
       <c r="N513" s="1"/>
     </row>
     <row r="514" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="6"/>
-      <c r="B514" s="60"/>
-      <c r="C514" s="60"/>
-      <c r="D514" s="60"/>
-      <c r="E514" s="60"/>
+      <c r="B514" s="59"/>
+      <c r="C514" s="59"/>
+      <c r="D514" s="59"/>
+      <c r="E514" s="102"/>
       <c r="N514" s="1"/>
     </row>
     <row r="515" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="6"/>
-      <c r="B515" s="60"/>
-      <c r="C515" s="60"/>
-      <c r="D515" s="60"/>
-      <c r="E515" s="60"/>
+      <c r="B515" s="59"/>
+      <c r="C515" s="59"/>
+      <c r="D515" s="59"/>
+      <c r="E515" s="102"/>
       <c r="N515" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
